--- a/app/data/pool_index.xlsx
+++ b/app/data/pool_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86764807-C22E-4A44-BA19-B41254114A46}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A6759-A789-4E7C-A4F9-3EFB622C1197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">NAICS!$A$1:$A$172</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="1054">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="1053">
   <si>
     <t>number</t>
   </si>
@@ -221,9 +221,6 @@
   </si>
   <si>
     <t>Roofing Services</t>
-  </si>
-  <si>
-    <t>HVAC Mainentance</t>
   </si>
   <si>
     <t>HCATS Small Business Pool 1</t>
@@ -3656,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -3887,19 +3884,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -3920,8 +3917,8 @@
   <dimension ref="A1:AMI71"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C37" sqref="C37"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4194,7 +4191,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>40</v>
@@ -4432,7 +4429,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>50</v>
@@ -4446,7 +4443,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>40</v>
@@ -4460,7 +4457,7 @@
         <v>1</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>50</v>
@@ -4474,7 +4471,7 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>40</v>
@@ -4488,10 +4485,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -4502,10 +4499,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -4516,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -4530,10 +4527,10 @@
         <v>4</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -4541,13 +4538,13 @@
         <v>26</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -4555,13 +4552,13 @@
         <v>26</v>
       </c>
       <c r="B45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D45" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -4572,10 +4569,10 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -4586,10 +4583,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -4600,10 +4597,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -4614,10 +4611,10 @@
         <v>3</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -4628,10 +4625,10 @@
         <v>4</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -4639,13 +4636,13 @@
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
@@ -4653,13 +4650,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -4670,10 +4667,10 @@
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -4684,7 +4681,7 @@
         <v>382</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -4695,7 +4692,7 @@
         <v>520</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -4706,7 +4703,7 @@
         <v>541</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -4717,7 +4714,7 @@
         <v>871</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
@@ -4728,7 +4725,7 @@
         <v>874</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
@@ -4739,7 +4736,7 @@
         <v>874500</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -4750,128 +4747,128 @@
         <v>899</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B66" s="1">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B67" s="1">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B68" s="1">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B69" s="1">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B70" s="1">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B71" s="1">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
   </sheetData>
@@ -4904,217 +4901,217 @@
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="BI1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
@@ -6898,217 +6895,217 @@
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BH1" s="1" t="s">
-        <v>147</v>
-      </c>
       <c r="BI1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>1050</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
@@ -7151,7 +7148,7 @@
     </row>
     <row r="6" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>16</v>
@@ -7162,7 +7159,7 @@
     </row>
     <row r="7" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>16</v>
@@ -7173,7 +7170,7 @@
     </row>
     <row r="8" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>16</v>
@@ -7184,7 +7181,7 @@
     </row>
     <row r="9" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>16</v>
@@ -7195,7 +7192,7 @@
     </row>
     <row r="10" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>16</v>
@@ -7206,7 +7203,7 @@
     </row>
     <row r="11" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>16</v>
@@ -7217,7 +7214,7 @@
     </row>
     <row r="12" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>16</v>
@@ -7228,7 +7225,7 @@
     </row>
     <row r="13" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>16</v>
@@ -7239,7 +7236,7 @@
     </row>
     <row r="14" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>16</v>
@@ -7250,7 +7247,7 @@
     </row>
     <row r="15" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>16</v>
@@ -7261,7 +7258,7 @@
     </row>
     <row r="16" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>16</v>
@@ -7272,7 +7269,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>16</v>
@@ -7283,7 +7280,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>16</v>
@@ -7294,7 +7291,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>16</v>
@@ -7305,7 +7302,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>16</v>
@@ -7316,7 +7313,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>16</v>
@@ -7327,7 +7324,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>16</v>
@@ -7338,7 +7335,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>16</v>
@@ -7349,7 +7346,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>16</v>
@@ -7360,7 +7357,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>16</v>
@@ -7371,7 +7368,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>16</v>
@@ -7382,7 +7379,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>16</v>
@@ -7393,7 +7390,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>16</v>
@@ -7404,7 +7401,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>16</v>
@@ -7415,7 +7412,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>16</v>
@@ -7426,7 +7423,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>16</v>
@@ -7437,7 +7434,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>16</v>
@@ -7448,7 +7445,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>16</v>
@@ -7459,7 +7456,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>16</v>
@@ -7470,7 +7467,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>16</v>
@@ -7481,7 +7478,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>16</v>
@@ -7492,7 +7489,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>16</v>
@@ -7503,7 +7500,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>16</v>
@@ -7514,7 +7511,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>16</v>
@@ -7525,7 +7522,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>16</v>
@@ -7536,7 +7533,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>16</v>
@@ -7547,7 +7544,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>16</v>
@@ -7558,7 +7555,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>16</v>
@@ -7569,7 +7566,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>16</v>
@@ -7580,7 +7577,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>16</v>
@@ -7591,7 +7588,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>16</v>
@@ -7602,7 +7599,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>16</v>
@@ -7613,7 +7610,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>16</v>
@@ -7624,7 +7621,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>16</v>
@@ -7635,7 +7632,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>16</v>
@@ -7646,7 +7643,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>16</v>
@@ -7657,7 +7654,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>16</v>
@@ -7668,7 +7665,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>16</v>
@@ -7679,7 +7676,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>16</v>
@@ -7690,7 +7687,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>16</v>
@@ -7701,7 +7698,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>16</v>
@@ -7712,7 +7709,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>16</v>
@@ -7723,7 +7720,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>16</v>
@@ -7734,7 +7731,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>16</v>
@@ -7745,7 +7742,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>16</v>
@@ -7756,7 +7753,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>16</v>
@@ -7767,7 +7764,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>16</v>
@@ -7778,7 +7775,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>16</v>
@@ -7789,7 +7786,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>16</v>
@@ -7800,7 +7797,7 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>16</v>
@@ -7811,7 +7808,7 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>16</v>
@@ -7822,7 +7819,7 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>16</v>
@@ -7833,7 +7830,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>16</v>
@@ -7844,7 +7841,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J69" s="1" t="s">
         <v>16</v>
@@ -7861,7 +7858,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J70" s="1" t="s">
         <v>16</v>
@@ -7878,7 +7875,7 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J71" s="1" t="s">
         <v>16</v>
@@ -7895,7 +7892,7 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J72" s="1" t="s">
         <v>16</v>
@@ -7912,7 +7909,7 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>16</v>
@@ -7929,7 +7926,7 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="J74" s="1" t="s">
         <v>16</v>
@@ -7946,7 +7943,7 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="J75" s="1" t="s">
         <v>16</v>
@@ -7963,7 +7960,7 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="L76" s="1" t="s">
         <v>16</v>
@@ -7974,7 +7971,7 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L77" s="1" t="s">
         <v>16</v>
@@ -7985,7 +7982,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L78" s="1" t="s">
         <v>16</v>
@@ -7996,7 +7993,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="L79" s="1" t="s">
         <v>16</v>
@@ -8007,7 +8004,7 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="L80" s="1" t="s">
         <v>16</v>
@@ -8018,7 +8015,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="L81" s="1" t="s">
         <v>16</v>
@@ -8029,7 +8026,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L82" s="1" t="s">
         <v>16</v>
@@ -8040,7 +8037,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>16</v>
@@ -8051,7 +8048,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>16</v>
@@ -8062,7 +8059,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>16</v>
@@ -8073,7 +8070,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>16</v>
@@ -8084,7 +8081,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>16</v>
@@ -8095,7 +8092,7 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>16</v>
@@ -8106,7 +8103,7 @@
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>16</v>
@@ -8117,7 +8114,7 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>16</v>
@@ -8128,7 +8125,7 @@
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>16</v>
@@ -8139,7 +8136,7 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>16</v>
@@ -8150,7 +8147,7 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>16</v>
@@ -8161,7 +8158,7 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>16</v>
@@ -8172,7 +8169,7 @@
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>16</v>
@@ -8183,7 +8180,7 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>16</v>
@@ -8194,7 +8191,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>16</v>
@@ -8205,7 +8202,7 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>16</v>
@@ -8216,7 +8213,7 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>16</v>
@@ -8227,7 +8224,7 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>16</v>
@@ -8238,7 +8235,7 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>16</v>
@@ -8249,7 +8246,7 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>16</v>
@@ -8260,7 +8257,7 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>16</v>
@@ -8271,7 +8268,7 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>16</v>
@@ -8282,7 +8279,7 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>16</v>
@@ -8293,7 +8290,7 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>16</v>
@@ -8304,7 +8301,7 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>16</v>
@@ -8315,7 +8312,7 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H108" s="1" t="s">
         <v>16</v>
@@ -8326,7 +8323,7 @@
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>16</v>
@@ -8337,7 +8334,7 @@
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H110" s="1" t="s">
         <v>16</v>
@@ -8348,7 +8345,7 @@
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H111" s="1" t="s">
         <v>16</v>
@@ -8359,7 +8356,7 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H112" s="1" t="s">
         <v>16</v>
@@ -8370,7 +8367,7 @@
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H113" s="1" t="s">
         <v>16</v>
@@ -8381,7 +8378,7 @@
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H114" s="1" t="s">
         <v>16</v>
@@ -8392,7 +8389,7 @@
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H115" s="1" t="s">
         <v>16</v>
@@ -8403,7 +8400,7 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H116" s="1" t="s">
         <v>16</v>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H117" s="1" t="s">
         <v>16</v>
@@ -8425,7 +8422,7 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H118" s="1" t="s">
         <v>16</v>
@@ -8436,7 +8433,7 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H119" s="1" t="s">
         <v>16</v>
@@ -8447,7 +8444,7 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H120" s="1" t="s">
         <v>16</v>
@@ -8458,7 +8455,7 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H121" s="1" t="s">
         <v>16</v>
@@ -8469,7 +8466,7 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H122" s="1" t="s">
         <v>16</v>
@@ -8480,7 +8477,7 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H123" s="1" t="s">
         <v>16</v>
@@ -8491,7 +8488,7 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H124" s="1" t="s">
         <v>16</v>
@@ -8502,7 +8499,7 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H125" s="1" t="s">
         <v>16</v>
@@ -8513,7 +8510,7 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H126" s="1" t="s">
         <v>16</v>
@@ -8524,7 +8521,7 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H127" s="1" t="s">
         <v>16</v>
@@ -8535,7 +8532,7 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H128" s="1" t="s">
         <v>16</v>
@@ -8546,7 +8543,7 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H129" s="1" t="s">
         <v>16</v>
@@ -8557,7 +8554,7 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H130" s="1" t="s">
         <v>16</v>
@@ -8568,7 +8565,7 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H131" s="1" t="s">
         <v>16</v>
@@ -8579,7 +8576,7 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H132" s="1" t="s">
         <v>16</v>
@@ -8590,7 +8587,7 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H133" s="1" t="s">
         <v>16</v>
@@ -8601,7 +8598,7 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H134" s="1" t="s">
         <v>16</v>
@@ -8612,7 +8609,7 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H135" s="1" t="s">
         <v>16</v>
@@ -8623,7 +8620,7 @@
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H136" s="1" t="s">
         <v>16</v>
@@ -8634,7 +8631,7 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H137" s="1" t="s">
         <v>16</v>
@@ -8645,7 +8642,7 @@
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H138" s="1" t="s">
         <v>16</v>
@@ -8656,7 +8653,7 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H139" s="1" t="s">
         <v>16</v>
@@ -8667,7 +8664,7 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H140" s="1" t="s">
         <v>16</v>
@@ -8678,7 +8675,7 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H141" s="1" t="s">
         <v>16</v>
@@ -8689,7 +8686,7 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H142" s="1" t="s">
         <v>16</v>
@@ -8700,7 +8697,7 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="H143" s="1" t="s">
         <v>16</v>
@@ -8711,7 +8708,7 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H144" s="1" t="s">
         <v>16</v>
@@ -8722,7 +8719,7 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H145" s="1" t="s">
         <v>16</v>
@@ -8733,7 +8730,7 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H146" s="1" t="s">
         <v>16</v>
@@ -8744,7 +8741,7 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H147" s="1" t="s">
         <v>16</v>
@@ -8755,7 +8752,7 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H148" s="1" t="s">
         <v>16</v>
@@ -8766,7 +8763,7 @@
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H149" s="1" t="s">
         <v>16</v>
@@ -8777,7 +8774,7 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H150" s="1" t="s">
         <v>16</v>
@@ -8788,7 +8785,7 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H151" s="1" t="s">
         <v>16</v>
@@ -8799,7 +8796,7 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H152" s="1" t="s">
         <v>16</v>
@@ -8810,7 +8807,7 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H153" s="1" t="s">
         <v>16</v>
@@ -8821,7 +8818,7 @@
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H154" s="1" t="s">
         <v>16</v>
@@ -8832,7 +8829,7 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H155" s="1" t="s">
         <v>16</v>
@@ -8843,7 +8840,7 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>16</v>
@@ -8854,7 +8851,7 @@
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H157" s="1" t="s">
         <v>16</v>
@@ -8865,7 +8862,7 @@
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H158" s="1" t="s">
         <v>16</v>
@@ -8876,7 +8873,7 @@
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H159" s="1" t="s">
         <v>16</v>
@@ -8887,7 +8884,7 @@
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H160" s="1" t="s">
         <v>16</v>
@@ -8898,7 +8895,7 @@
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="H161" s="1" t="s">
         <v>16</v>
@@ -8909,7 +8906,7 @@
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H162" s="1" t="s">
         <v>16</v>
@@ -8920,7 +8917,7 @@
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="H163" s="1" t="s">
         <v>16</v>
@@ -8931,7 +8928,7 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H164" s="1" t="s">
         <v>16</v>
@@ -8942,7 +8939,7 @@
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H165" s="1" t="s">
         <v>16</v>
@@ -8953,7 +8950,7 @@
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H166" s="1" t="s">
         <v>16</v>
@@ -8964,7 +8961,7 @@
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>16</v>
@@ -8975,7 +8972,7 @@
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>16</v>
@@ -8986,7 +8983,7 @@
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>16</v>
@@ -8997,7 +8994,7 @@
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D170" s="1" t="s">
         <v>16</v>
@@ -9008,7 +9005,7 @@
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>16</v>
@@ -9019,7 +9016,7 @@
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D172" s="1" t="s">
         <v>16</v>
@@ -9030,7 +9027,7 @@
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>16</v>
@@ -9041,7 +9038,7 @@
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>16</v>
@@ -9052,7 +9049,7 @@
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>16</v>
@@ -9063,7 +9060,7 @@
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>16</v>
@@ -9074,7 +9071,7 @@
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>16</v>
@@ -9085,7 +9082,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>16</v>
@@ -9096,7 +9093,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>16</v>
@@ -9107,7 +9104,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D180" s="1" t="s">
         <v>16</v>
@@ -9118,7 +9115,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>16</v>
@@ -9129,7 +9126,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D182" s="1" t="s">
         <v>16</v>
@@ -9140,7 +9137,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>16</v>
@@ -9151,7 +9148,7 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>16</v>
@@ -9162,7 +9159,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>16</v>
@@ -9173,7 +9170,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D186" s="1" t="s">
         <v>16</v>
@@ -9184,7 +9181,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D187" s="1" t="s">
         <v>16</v>
@@ -9195,7 +9192,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>16</v>
@@ -9206,7 +9203,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>16</v>
@@ -9217,7 +9214,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>16</v>
@@ -9228,7 +9225,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>16</v>
@@ -9239,7 +9236,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>16</v>
@@ -9250,7 +9247,7 @@
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>16</v>
@@ -9261,7 +9258,7 @@
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>16</v>
@@ -9272,7 +9269,7 @@
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>16</v>
@@ -9283,7 +9280,7 @@
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D196" s="1" t="s">
         <v>16</v>
@@ -9294,7 +9291,7 @@
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D197" s="1" t="s">
         <v>16</v>
@@ -9305,7 +9302,7 @@
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>16</v>
@@ -9316,7 +9313,7 @@
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>16</v>
@@ -9327,7 +9324,7 @@
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>16</v>
@@ -9338,7 +9335,7 @@
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D201" s="1" t="s">
         <v>16</v>
@@ -9349,7 +9346,7 @@
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H202" s="1" t="s">
         <v>16</v>
@@ -9360,7 +9357,7 @@
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H203" s="1" t="s">
         <v>16</v>
@@ -9371,7 +9368,7 @@
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H204" s="1" t="s">
         <v>16</v>
@@ -9382,7 +9379,7 @@
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H205" s="1" t="s">
         <v>16</v>
@@ -9393,7 +9390,7 @@
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H206" s="1" t="s">
         <v>16</v>
@@ -9404,7 +9401,7 @@
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H207" s="1" t="s">
         <v>16</v>
@@ -9415,7 +9412,7 @@
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H208" s="1" t="s">
         <v>16</v>
@@ -9426,7 +9423,7 @@
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H209" s="1" t="s">
         <v>16</v>
@@ -9437,7 +9434,7 @@
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H210" s="1" t="s">
         <v>16</v>
@@ -9448,7 +9445,7 @@
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H211" s="1" t="s">
         <v>16</v>
@@ -9459,7 +9456,7 @@
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H212" s="1" t="s">
         <v>16</v>
@@ -9470,7 +9467,7 @@
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H213" s="1" t="s">
         <v>16</v>
@@ -9481,7 +9478,7 @@
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H214" s="1" t="s">
         <v>16</v>
@@ -9492,7 +9489,7 @@
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H215" s="1" t="s">
         <v>16</v>
@@ -9503,7 +9500,7 @@
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H216" s="1" t="s">
         <v>16</v>
@@ -9514,7 +9511,7 @@
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H217" s="1" t="s">
         <v>16</v>
@@ -9525,7 +9522,7 @@
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H218" s="1" t="s">
         <v>16</v>
@@ -9536,7 +9533,7 @@
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H219" s="1" t="s">
         <v>16</v>
@@ -9547,7 +9544,7 @@
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H220" s="1" t="s">
         <v>16</v>
@@ -9558,7 +9555,7 @@
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H221" s="1" t="s">
         <v>16</v>
@@ -9569,7 +9566,7 @@
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H222" s="1" t="s">
         <v>16</v>
@@ -9580,7 +9577,7 @@
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H223" s="1" t="s">
         <v>16</v>
@@ -9591,7 +9588,7 @@
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H224" s="1" t="s">
         <v>16</v>
@@ -9602,7 +9599,7 @@
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H225" s="1" t="s">
         <v>16</v>
@@ -9613,7 +9610,7 @@
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="H226" s="1" t="s">
         <v>16</v>
@@ -9624,7 +9621,7 @@
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="H227" s="1" t="s">
         <v>16</v>
@@ -9635,7 +9632,7 @@
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H228" s="1" t="s">
         <v>16</v>
@@ -9646,7 +9643,7 @@
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H229" s="1" t="s">
         <v>16</v>
@@ -9657,7 +9654,7 @@
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H230" s="1" t="s">
         <v>16</v>
@@ -9668,7 +9665,7 @@
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H231" s="1" t="s">
         <v>16</v>
@@ -9679,7 +9676,7 @@
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H232" s="1" t="s">
         <v>16</v>
@@ -9690,7 +9687,7 @@
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H233" s="1" t="s">
         <v>16</v>
@@ -9701,7 +9698,7 @@
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H234" s="1" t="s">
         <v>16</v>
@@ -9712,7 +9709,7 @@
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H235" s="1" t="s">
         <v>16</v>
@@ -9723,7 +9720,7 @@
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H236" s="1" t="s">
         <v>16</v>
@@ -9734,7 +9731,7 @@
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H237" s="1" t="s">
         <v>16</v>
@@ -9745,7 +9742,7 @@
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H238" s="1" t="s">
         <v>16</v>
@@ -9756,7 +9753,7 @@
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H239" s="1" t="s">
         <v>16</v>
@@ -9767,7 +9764,7 @@
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H240" s="1" t="s">
         <v>16</v>
@@ -9778,7 +9775,7 @@
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H241" s="1" t="s">
         <v>16</v>
@@ -9789,7 +9786,7 @@
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H242" s="1" t="s">
         <v>16</v>
@@ -9800,7 +9797,7 @@
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H243" s="1" t="s">
         <v>16</v>
@@ -9811,7 +9808,7 @@
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H244" s="1" t="s">
         <v>16</v>
@@ -9822,7 +9819,7 @@
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H245" s="1" t="s">
         <v>16</v>
@@ -9833,7 +9830,7 @@
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H246" s="1" t="s">
         <v>16</v>
@@ -9844,7 +9841,7 @@
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H247" s="1" t="s">
         <v>16</v>
@@ -9855,7 +9852,7 @@
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H248" s="1" t="s">
         <v>16</v>
@@ -9866,7 +9863,7 @@
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H249" s="1" t="s">
         <v>16</v>
@@ -9877,7 +9874,7 @@
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H250" s="1" t="s">
         <v>16</v>
@@ -9888,7 +9885,7 @@
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" s="1" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H251" s="1" t="s">
         <v>16</v>
@@ -9899,7 +9896,7 @@
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="1" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H252" s="1" t="s">
         <v>16</v>
@@ -9910,7 +9907,7 @@
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H253" s="1" t="s">
         <v>16</v>
@@ -9921,7 +9918,7 @@
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H254" s="1" t="s">
         <v>16</v>
@@ -9932,7 +9929,7 @@
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="1" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H255" s="1" t="s">
         <v>16</v>
@@ -9943,7 +9940,7 @@
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H256" s="1" t="s">
         <v>16</v>
@@ -9954,7 +9951,7 @@
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H257" s="1" t="s">
         <v>16</v>
@@ -9965,7 +9962,7 @@
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H258" s="1" t="s">
         <v>16</v>
@@ -9976,7 +9973,7 @@
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="H259" s="1" t="s">
         <v>16</v>
@@ -9987,7 +9984,7 @@
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H260" s="1" t="s">
         <v>16</v>
@@ -9998,7 +9995,7 @@
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H261" s="1" t="s">
         <v>16</v>
@@ -10009,7 +10006,7 @@
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H262" s="1" t="s">
         <v>16</v>
@@ -10020,7 +10017,7 @@
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="1" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H263" s="1" t="s">
         <v>16</v>
@@ -10031,7 +10028,7 @@
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H264" s="1" t="s">
         <v>16</v>
@@ -10042,7 +10039,7 @@
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="H265" s="1" t="s">
         <v>16</v>
@@ -10053,7 +10050,7 @@
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" s="1" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H266" s="1" t="s">
         <v>16</v>
@@ -10064,7 +10061,7 @@
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="1" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="H267" s="1" t="s">
         <v>16</v>
@@ -10075,7 +10072,7 @@
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="1" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H268" s="1" t="s">
         <v>16</v>
@@ -10086,7 +10083,7 @@
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H269" s="1" t="s">
         <v>16</v>
@@ -10097,7 +10094,7 @@
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H270" s="1" t="s">
         <v>16</v>
@@ -10108,7 +10105,7 @@
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" s="1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H271" s="1" t="s">
         <v>16</v>
@@ -10119,7 +10116,7 @@
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H272" s="1" t="s">
         <v>16</v>
@@ -10130,7 +10127,7 @@
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H273" s="1" t="s">
         <v>16</v>
@@ -10141,7 +10138,7 @@
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H274" s="1" t="s">
         <v>16</v>
@@ -10152,7 +10149,7 @@
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H275" s="1" t="s">
         <v>16</v>
@@ -10163,7 +10160,7 @@
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H276" s="1" t="s">
         <v>16</v>
@@ -10174,7 +10171,7 @@
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H277" s="1" t="s">
         <v>16</v>
@@ -10185,7 +10182,7 @@
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H278" s="1" t="s">
         <v>16</v>
@@ -10196,7 +10193,7 @@
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H279" s="1" t="s">
         <v>16</v>
@@ -10207,7 +10204,7 @@
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H280" s="1" t="s">
         <v>16</v>
@@ -10218,7 +10215,7 @@
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" s="1" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H281" s="1" t="s">
         <v>16</v>
@@ -10229,7 +10226,7 @@
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="1" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H282" s="1" t="s">
         <v>16</v>
@@ -10240,7 +10237,7 @@
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H283" s="1" t="s">
         <v>16</v>
@@ -10251,7 +10248,7 @@
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H284" s="1" t="s">
         <v>16</v>
@@ -10262,7 +10259,7 @@
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" s="1" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H285" s="1" t="s">
         <v>16</v>
@@ -10273,7 +10270,7 @@
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="H286" s="1" t="s">
         <v>16</v>
@@ -10284,7 +10281,7 @@
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H287" s="1" t="s">
         <v>16</v>
@@ -10295,7 +10292,7 @@
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H288" s="1" t="s">
         <v>16</v>
@@ -10306,7 +10303,7 @@
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H289" s="1" t="s">
         <v>16</v>
@@ -10317,7 +10314,7 @@
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="1" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H290" s="1" t="s">
         <v>16</v>
@@ -10328,7 +10325,7 @@
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H291" s="1" t="s">
         <v>16</v>
@@ -10339,7 +10336,7 @@
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H292" s="1" t="s">
         <v>16</v>
@@ -10350,7 +10347,7 @@
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H293" s="1" t="s">
         <v>16</v>
@@ -10361,7 +10358,7 @@
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H294" s="1" t="s">
         <v>16</v>
@@ -10372,7 +10369,7 @@
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H295" s="1" t="s">
         <v>16</v>
@@ -10383,7 +10380,7 @@
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H296" s="1" t="s">
         <v>16</v>
@@ -10394,7 +10391,7 @@
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H297" s="1" t="s">
         <v>16</v>
@@ -10405,7 +10402,7 @@
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" s="1" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H298" s="1" t="s">
         <v>16</v>
@@ -10416,7 +10413,7 @@
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="H299" s="1" t="s">
         <v>16</v>
@@ -10427,7 +10424,7 @@
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H300" s="1" t="s">
         <v>16</v>
@@ -10438,7 +10435,7 @@
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" s="1" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H301" s="1" t="s">
         <v>16</v>
@@ -10449,7 +10446,7 @@
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="H302" s="1" t="s">
         <v>16</v>
@@ -10460,7 +10457,7 @@
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="1" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H303" s="1" t="s">
         <v>16</v>
@@ -10471,7 +10468,7 @@
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H304" s="1" t="s">
         <v>16</v>
@@ -10482,7 +10479,7 @@
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" s="1" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H305" s="1" t="s">
         <v>16</v>
@@ -10493,7 +10490,7 @@
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H306" s="1" t="s">
         <v>16</v>
@@ -10504,7 +10501,7 @@
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H307" s="1" t="s">
         <v>16</v>
@@ -10515,7 +10512,7 @@
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H308" s="1" t="s">
         <v>16</v>
@@ -10526,7 +10523,7 @@
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H309" s="1" t="s">
         <v>16</v>
@@ -10537,7 +10534,7 @@
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H310" s="1" t="s">
         <v>16</v>
@@ -10548,7 +10545,7 @@
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H311" s="1" t="s">
         <v>16</v>
@@ -10559,7 +10556,7 @@
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>16</v>
@@ -10570,7 +10567,7 @@
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H313" s="1" t="s">
         <v>16</v>
@@ -10581,7 +10578,7 @@
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>16</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" s="1" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>16</v>
@@ -10603,7 +10600,7 @@
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="H316" s="1" t="s">
         <v>16</v>
@@ -10614,7 +10611,7 @@
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="H317" s="1" t="s">
         <v>16</v>
@@ -10625,7 +10622,7 @@
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" s="1" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>16</v>
@@ -10636,7 +10633,7 @@
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="1" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="H319" s="1" t="s">
         <v>16</v>
@@ -10647,7 +10644,7 @@
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="H320" s="1" t="s">
         <v>16</v>
@@ -10658,7 +10655,7 @@
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" s="1" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="H321" s="1" t="s">
         <v>16</v>
@@ -10669,7 +10666,7 @@
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="1" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="H322" s="1" t="s">
         <v>16</v>
@@ -10680,7 +10677,7 @@
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="1" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>16</v>
@@ -10691,7 +10688,7 @@
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>16</v>
@@ -10702,7 +10699,7 @@
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H325" s="1" t="s">
         <v>16</v>
@@ -10713,7 +10710,7 @@
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>16</v>
@@ -10724,7 +10721,7 @@
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="H327" s="1" t="s">
         <v>16</v>
@@ -10735,7 +10732,7 @@
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>16</v>
@@ -10746,7 +10743,7 @@
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>16</v>
@@ -10757,7 +10754,7 @@
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="H330" s="1" t="s">
         <v>16</v>
@@ -10768,7 +10765,7 @@
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="H331" s="1" t="s">
         <v>16</v>
@@ -10779,7 +10776,7 @@
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="H332" s="1" t="s">
         <v>16</v>
@@ -10790,7 +10787,7 @@
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="H333" s="1" t="s">
         <v>16</v>
@@ -10801,7 +10798,7 @@
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="1" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="H334" s="1" t="s">
         <v>16</v>
@@ -10812,7 +10809,7 @@
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>16</v>
@@ -10823,7 +10820,7 @@
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H336" s="1" t="s">
         <v>16</v>
@@ -10834,7 +10831,7 @@
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>16</v>
@@ -10845,7 +10842,7 @@
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>16</v>
@@ -10856,7 +10853,7 @@
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H339" s="1" t="s">
         <v>16</v>
@@ -10867,7 +10864,7 @@
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>16</v>
@@ -10878,7 +10875,7 @@
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>16</v>
@@ -10889,7 +10886,7 @@
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="H342" s="1" t="s">
         <v>16</v>
@@ -10900,7 +10897,7 @@
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H343" s="1" t="s">
         <v>16</v>
@@ -10911,7 +10908,7 @@
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H344" s="1" t="s">
         <v>16</v>
@@ -10922,7 +10919,7 @@
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H345" s="1" t="s">
         <v>16</v>
@@ -10933,7 +10930,7 @@
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H346" s="1" t="s">
         <v>16</v>
@@ -10944,7 +10941,7 @@
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="H347" s="1" t="s">
         <v>16</v>
@@ -10955,7 +10952,7 @@
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="H348" s="1" t="s">
         <v>16</v>
@@ -10966,7 +10963,7 @@
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="H349" s="1" t="s">
         <v>16</v>
@@ -10977,7 +10974,7 @@
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="H350" s="1" t="s">
         <v>16</v>
@@ -10988,7 +10985,7 @@
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="H351" s="1" t="s">
         <v>16</v>
@@ -10999,7 +10996,7 @@
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H352" s="1" t="s">
         <v>16</v>
@@ -11010,7 +11007,7 @@
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="H353" s="1" t="s">
         <v>16</v>
@@ -11021,7 +11018,7 @@
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="H354" s="1" t="s">
         <v>16</v>
@@ -11032,7 +11029,7 @@
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="H355" s="1" t="s">
         <v>16</v>
@@ -11043,7 +11040,7 @@
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="H356" s="1" t="s">
         <v>16</v>
@@ -11054,7 +11051,7 @@
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H357" s="1" t="s">
         <v>16</v>
@@ -11065,7 +11062,7 @@
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="H358" s="1" t="s">
         <v>16</v>
@@ -11076,7 +11073,7 @@
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="H359" s="1" t="s">
         <v>16</v>
@@ -11087,7 +11084,7 @@
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="H360" s="1" t="s">
         <v>16</v>
@@ -11098,7 +11095,7 @@
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H361" s="1" t="s">
         <v>16</v>
@@ -11109,7 +11106,7 @@
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>16</v>
@@ -11120,7 +11117,7 @@
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>16</v>
@@ -11131,7 +11128,7 @@
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>16</v>
@@ -11142,7 +11139,7 @@
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>16</v>
@@ -11153,7 +11150,7 @@
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>16</v>
@@ -11164,7 +11161,7 @@
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D367" s="1" t="s">
         <v>16</v>
@@ -11175,7 +11172,7 @@
     </row>
     <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>16</v>
@@ -11186,7 +11183,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A369" s="1" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>16</v>
@@ -11197,7 +11194,7 @@
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A370" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>16</v>
@@ -11208,7 +11205,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A371" s="1" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>16</v>
@@ -11219,7 +11216,7 @@
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A372" s="1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>16</v>
@@ -11230,7 +11227,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A373" s="1" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>16</v>
@@ -11241,7 +11238,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A374" s="1" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>16</v>
@@ -11252,7 +11249,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A375" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>16</v>
@@ -11263,7 +11260,7 @@
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A376" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>16</v>
@@ -11274,7 +11271,7 @@
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A377" s="1" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D377" s="1" t="s">
         <v>16</v>
@@ -11285,7 +11282,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A378" s="1" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>16</v>
@@ -11296,7 +11293,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A379" s="1" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>16</v>
@@ -11307,7 +11304,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A380" s="1" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>16</v>
@@ -11318,7 +11315,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A381" s="1" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>16</v>
@@ -11329,7 +11326,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A382" s="1" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>16</v>
@@ -11340,7 +11337,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A383" s="1" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>16</v>
@@ -11351,7 +11348,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A384" s="1" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>16</v>
@@ -11362,7 +11359,7 @@
     </row>
     <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>16</v>
@@ -11373,7 +11370,7 @@
     </row>
     <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>16</v>
@@ -11384,7 +11381,7 @@
     </row>
     <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="1" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>16</v>
@@ -11395,7 +11392,7 @@
     </row>
     <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="1" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>16</v>
@@ -11406,7 +11403,7 @@
     </row>
     <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>16</v>
@@ -11417,7 +11414,7 @@
     </row>
     <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="1" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>16</v>
@@ -11428,7 +11425,7 @@
     </row>
     <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H391" s="1" t="s">
         <v>16</v>
@@ -11439,7 +11436,7 @@
     </row>
     <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="1" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H392" s="1" t="s">
         <v>16</v>
@@ -11450,7 +11447,7 @@
     </row>
     <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" s="1" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H393" s="1" t="s">
         <v>16</v>
@@ -11461,7 +11458,7 @@
     </row>
     <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" s="1" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="H394" s="1" t="s">
         <v>16</v>
@@ -11472,7 +11469,7 @@
     </row>
     <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" s="1" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="H395" s="1" t="s">
         <v>16</v>
@@ -11483,7 +11480,7 @@
     </row>
     <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H396" s="1" t="s">
         <v>16</v>
@@ -11494,7 +11491,7 @@
     </row>
     <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H397" s="1" t="s">
         <v>16</v>
@@ -11505,7 +11502,7 @@
     </row>
     <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="H398" s="1" t="s">
         <v>16</v>
@@ -11516,7 +11513,7 @@
     </row>
     <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="H399" s="1" t="s">
         <v>16</v>
@@ -11527,7 +11524,7 @@
     </row>
     <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H400" s="1" t="s">
         <v>16</v>
@@ -11538,7 +11535,7 @@
     </row>
     <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="H401" s="1" t="s">
         <v>16</v>
@@ -11549,7 +11546,7 @@
     </row>
     <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="H402" s="1" t="s">
         <v>16</v>
@@ -11560,7 +11557,7 @@
     </row>
     <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" s="1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="H403" s="1" t="s">
         <v>16</v>
@@ -11571,7 +11568,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H404" s="1" t="s">
         <v>16</v>
@@ -11582,7 +11579,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="H405" s="1" t="s">
         <v>16</v>
@@ -11593,7 +11590,7 @@
     </row>
     <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" s="1" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="H406" s="1" t="s">
         <v>16</v>
@@ -11604,7 +11601,7 @@
     </row>
     <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="1" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="H407" s="1" t="s">
         <v>16</v>
@@ -11615,7 +11612,7 @@
     </row>
     <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="H408" s="1" t="s">
         <v>16</v>
@@ -11626,7 +11623,7 @@
     </row>
     <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" s="1" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="H409" s="1" t="s">
         <v>16</v>
@@ -11637,7 +11634,7 @@
     </row>
     <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="1" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H410" s="1" t="s">
         <v>16</v>
@@ -11648,7 +11645,7 @@
     </row>
     <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H411" s="1" t="s">
         <v>16</v>
@@ -11659,7 +11656,7 @@
     </row>
     <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H412" s="1" t="s">
         <v>16</v>
@@ -11670,7 +11667,7 @@
     </row>
     <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="H413" s="1" t="s">
         <v>16</v>
@@ -11681,7 +11678,7 @@
     </row>
     <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="H414" s="1" t="s">
         <v>16</v>
@@ -11692,7 +11689,7 @@
     </row>
     <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H415" s="1" t="s">
         <v>16</v>
@@ -11703,7 +11700,7 @@
     </row>
     <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="H416" s="1" t="s">
         <v>16</v>
@@ -11714,7 +11711,7 @@
     </row>
     <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="H417" s="1" t="s">
         <v>16</v>
@@ -11725,7 +11722,7 @@
     </row>
     <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="H418" s="1" t="s">
         <v>16</v>
@@ -11736,7 +11733,7 @@
     </row>
     <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H419" s="1" t="s">
         <v>16</v>
@@ -11747,7 +11744,7 @@
     </row>
     <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H420" s="1" t="s">
         <v>16</v>
@@ -11758,7 +11755,7 @@
     </row>
     <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="H421" s="1" t="s">
         <v>16</v>
@@ -11769,7 +11766,7 @@
     </row>
     <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="H422" s="1" t="s">
         <v>16</v>
@@ -11780,7 +11777,7 @@
     </row>
     <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H423" s="1" t="s">
         <v>16</v>
@@ -11791,7 +11788,7 @@
     </row>
     <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="H424" s="1" t="s">
         <v>16</v>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="H425" s="1" t="s">
         <v>16</v>
@@ -11813,7 +11810,7 @@
     </row>
     <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="1" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="H426" s="1" t="s">
         <v>16</v>
@@ -11824,7 +11821,7 @@
     </row>
     <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H427" s="1" t="s">
         <v>16</v>
@@ -11835,7 +11832,7 @@
     </row>
     <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H428" s="1" t="s">
         <v>16</v>
@@ -11846,7 +11843,7 @@
     </row>
     <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H429" s="1" t="s">
         <v>16</v>
@@ -11857,7 +11854,7 @@
     </row>
     <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="H430" s="1" t="s">
         <v>16</v>
@@ -11868,7 +11865,7 @@
     </row>
     <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="H431" s="1" t="s">
         <v>16</v>
@@ -11879,7 +11876,7 @@
     </row>
     <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="H432" s="1" t="s">
         <v>16</v>
@@ -11890,7 +11887,7 @@
     </row>
     <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H433" s="1" t="s">
         <v>16</v>
@@ -11901,7 +11898,7 @@
     </row>
     <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H434" s="1" t="s">
         <v>16</v>
@@ -11912,7 +11909,7 @@
     </row>
     <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" s="1" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H435" s="1" t="s">
         <v>16</v>
@@ -11923,7 +11920,7 @@
     </row>
     <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" s="1" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H436" s="1" t="s">
         <v>16</v>
@@ -11934,7 +11931,7 @@
     </row>
     <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H437" s="1" t="s">
         <v>16</v>
@@ -11945,7 +11942,7 @@
     </row>
     <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" s="1" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H438" s="1" t="s">
         <v>16</v>
@@ -11956,7 +11953,7 @@
     </row>
     <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" s="1" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H439" s="1" t="s">
         <v>16</v>
@@ -11967,7 +11964,7 @@
     </row>
     <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H440" s="1" t="s">
         <v>16</v>
@@ -11978,7 +11975,7 @@
     </row>
     <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" s="1" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H441" s="1" t="s">
         <v>16</v>
@@ -11989,7 +11986,7 @@
     </row>
     <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" s="1" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H442" s="1" t="s">
         <v>16</v>
@@ -12000,7 +11997,7 @@
     </row>
     <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H443" s="1" t="s">
         <v>16</v>
@@ -12011,7 +12008,7 @@
     </row>
     <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" s="1" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="H444" s="1" t="s">
         <v>16</v>
@@ -12022,7 +12019,7 @@
     </row>
     <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H445" s="1" t="s">
         <v>16</v>
@@ -12033,7 +12030,7 @@
     </row>
     <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H446" s="1" t="s">
         <v>16</v>
@@ -12044,7 +12041,7 @@
     </row>
     <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" s="1" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H447" s="1" t="s">
         <v>16</v>
@@ -12055,7 +12052,7 @@
     </row>
     <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" s="1" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H448" s="1" t="s">
         <v>16</v>
@@ -12066,7 +12063,7 @@
     </row>
     <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H449" s="1" t="s">
         <v>16</v>
@@ -12077,7 +12074,7 @@
     </row>
     <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H450" s="1" t="s">
         <v>16</v>
@@ -12088,7 +12085,7 @@
     </row>
     <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" s="1" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H451" s="1" t="s">
         <v>16</v>
@@ -12099,7 +12096,7 @@
     </row>
     <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="1" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H452" s="1" t="s">
         <v>16</v>
@@ -12110,7 +12107,7 @@
     </row>
     <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H453" s="1" t="s">
         <v>16</v>
@@ -12121,7 +12118,7 @@
     </row>
     <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" s="1" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H454" s="1" t="s">
         <v>16</v>
@@ -12132,7 +12129,7 @@
     </row>
     <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H455" s="1" t="s">
         <v>16</v>
@@ -12143,7 +12140,7 @@
     </row>
     <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H456" s="1" t="s">
         <v>16</v>
@@ -12154,7 +12151,7 @@
     </row>
     <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H457" s="1" t="s">
         <v>16</v>
@@ -12165,7 +12162,7 @@
     </row>
     <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H458" s="1" t="s">
         <v>16</v>
@@ -12176,7 +12173,7 @@
     </row>
     <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H459" s="1" t="s">
         <v>16</v>
@@ -12187,7 +12184,7 @@
     </row>
     <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" s="1" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H460" s="1" t="s">
         <v>16</v>
@@ -12198,7 +12195,7 @@
     </row>
     <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" s="1" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H461" s="1" t="s">
         <v>16</v>
@@ -12209,7 +12206,7 @@
     </row>
     <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" s="1" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H462" s="1" t="s">
         <v>16</v>
@@ -12220,7 +12217,7 @@
     </row>
     <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" s="1" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H463" s="1" t="s">
         <v>16</v>
@@ -12231,7 +12228,7 @@
     </row>
     <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" s="1" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H464" s="1" t="s">
         <v>16</v>
@@ -12242,7 +12239,7 @@
     </row>
     <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" s="1" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H465" s="1" t="s">
         <v>16</v>
@@ -12253,7 +12250,7 @@
     </row>
     <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H466" s="1" t="s">
         <v>16</v>
@@ -12264,7 +12261,7 @@
     </row>
     <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H467" s="1" t="s">
         <v>16</v>
@@ -12275,7 +12272,7 @@
     </row>
     <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" s="1" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="H468" s="1" t="s">
         <v>16</v>
@@ -12286,7 +12283,7 @@
     </row>
     <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" s="1" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="H469" s="1" t="s">
         <v>16</v>
@@ -12297,7 +12294,7 @@
     </row>
     <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" s="1" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H470" s="1" t="s">
         <v>16</v>
@@ -12308,7 +12305,7 @@
     </row>
     <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" s="1" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H471" s="1" t="s">
         <v>16</v>
@@ -12319,7 +12316,7 @@
     </row>
     <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H472" s="1" t="s">
         <v>16</v>
@@ -12330,7 +12327,7 @@
     </row>
     <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" s="1" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H473" s="1" t="s">
         <v>16</v>
@@ -12341,7 +12338,7 @@
     </row>
     <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" s="1" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H474" s="1" t="s">
         <v>16</v>
@@ -12352,7 +12349,7 @@
     </row>
     <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" s="1" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H475" s="1" t="s">
         <v>16</v>
@@ -12363,7 +12360,7 @@
     </row>
     <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" s="1" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H476" s="1" t="s">
         <v>16</v>
@@ -12374,7 +12371,7 @@
     </row>
     <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H477" s="1" t="s">
         <v>16</v>
@@ -12385,7 +12382,7 @@
     </row>
     <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" s="1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H478" s="1" t="s">
         <v>16</v>
@@ -12396,7 +12393,7 @@
     </row>
     <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H479" s="1" t="s">
         <v>16</v>
@@ -12407,7 +12404,7 @@
     </row>
     <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" s="1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H480" s="1" t="s">
         <v>16</v>
@@ -12418,7 +12415,7 @@
     </row>
     <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" s="1" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H481" s="1" t="s">
         <v>16</v>
@@ -12429,7 +12426,7 @@
     </row>
     <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" s="1" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H482" s="1" t="s">
         <v>16</v>
@@ -12440,7 +12437,7 @@
     </row>
     <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H483" s="1" t="s">
         <v>16</v>
@@ -12451,7 +12448,7 @@
     </row>
     <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" s="1" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H484" s="1" t="s">
         <v>16</v>
@@ -12462,7 +12459,7 @@
     </row>
     <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" s="1" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H485" s="1" t="s">
         <v>16</v>
@@ -12473,7 +12470,7 @@
     </row>
     <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H486" s="1" t="s">
         <v>16</v>
@@ -12484,7 +12481,7 @@
     </row>
     <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="H487" s="1" t="s">
         <v>16</v>
@@ -12495,7 +12492,7 @@
     </row>
     <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" s="1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="H488" s="1" t="s">
         <v>16</v>
@@ -12506,7 +12503,7 @@
     </row>
     <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" s="1" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H489" s="1" t="s">
         <v>16</v>
@@ -12517,7 +12514,7 @@
     </row>
     <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" s="1" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H490" s="1" t="s">
         <v>16</v>
@@ -12528,7 +12525,7 @@
     </row>
     <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" s="1" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H491" s="1" t="s">
         <v>16</v>
@@ -12539,7 +12536,7 @@
     </row>
     <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" s="1" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H492" s="1" t="s">
         <v>16</v>
@@ -12550,7 +12547,7 @@
     </row>
     <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H493" s="1" t="s">
         <v>16</v>
@@ -12561,7 +12558,7 @@
     </row>
     <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H494" s="1" t="s">
         <v>16</v>
@@ -12572,7 +12569,7 @@
     </row>
     <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" s="1" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H495" s="1" t="s">
         <v>16</v>
@@ -12583,7 +12580,7 @@
     </row>
     <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" s="1" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H496" s="1" t="s">
         <v>16</v>
@@ -12594,7 +12591,7 @@
     </row>
     <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" s="1" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H497" s="1" t="s">
         <v>16</v>
@@ -12605,7 +12602,7 @@
     </row>
     <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" s="1" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H498" s="1" t="s">
         <v>16</v>
@@ -12616,7 +12613,7 @@
     </row>
     <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H499" s="1" t="s">
         <v>16</v>
@@ -12627,7 +12624,7 @@
     </row>
     <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" s="1" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="H500" s="1" t="s">
         <v>16</v>
@@ -12638,7 +12635,7 @@
     </row>
     <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H501" s="1" t="s">
         <v>16</v>
@@ -12649,7 +12646,7 @@
     </row>
     <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" s="1" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="H502" s="1" t="s">
         <v>16</v>
@@ -12660,7 +12657,7 @@
     </row>
     <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" s="1" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D503" s="1" t="s">
         <v>16</v>
@@ -12671,7 +12668,7 @@
     </row>
     <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" s="1" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D504" s="1" t="s">
         <v>16</v>
@@ -12682,7 +12679,7 @@
     </row>
     <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" s="1" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D505" s="1" t="s">
         <v>16</v>
@@ -12693,7 +12690,7 @@
     </row>
     <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D506" s="1" t="s">
         <v>16</v>
@@ -12704,7 +12701,7 @@
     </row>
     <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D507" s="1" t="s">
         <v>16</v>
@@ -12715,7 +12712,7 @@
     </row>
     <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" s="1" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D508" s="1" t="s">
         <v>16</v>
@@ -12726,7 +12723,7 @@
     </row>
     <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" s="1" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D509" s="1" t="s">
         <v>16</v>
@@ -12737,7 +12734,7 @@
     </row>
     <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" s="1" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D510" s="1" t="s">
         <v>16</v>
@@ -12748,7 +12745,7 @@
     </row>
     <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D511" s="1" t="s">
         <v>16</v>
@@ -12759,7 +12756,7 @@
     </row>
     <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" s="1" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D512" s="1" t="s">
         <v>16</v>
@@ -12770,7 +12767,7 @@
     </row>
     <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="1" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D513" s="1" t="s">
         <v>16</v>
@@ -12781,7 +12778,7 @@
     </row>
     <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="1" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D514" s="1" t="s">
         <v>16</v>
@@ -12792,7 +12789,7 @@
     </row>
     <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="1" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D515" s="1" t="s">
         <v>16</v>
@@ -12803,7 +12800,7 @@
     </row>
     <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D516" s="1" t="s">
         <v>16</v>
@@ -12814,7 +12811,7 @@
     </row>
     <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="1" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L517" s="1" t="s">
         <v>16</v>
@@ -12825,7 +12822,7 @@
     </row>
     <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="L518" s="1" t="s">
         <v>16</v>
@@ -12836,7 +12833,7 @@
     </row>
     <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="L519" s="1" t="s">
         <v>16</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="1" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="L520" s="1" t="s">
         <v>16</v>
@@ -12858,7 +12855,7 @@
     </row>
     <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="1" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="L521" s="1" t="s">
         <v>16</v>
@@ -12869,7 +12866,7 @@
     </row>
     <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="L522" s="1" t="s">
         <v>16</v>
@@ -12880,7 +12877,7 @@
     </row>
     <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="1" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="L523" s="1" t="s">
         <v>16</v>
@@ -12891,7 +12888,7 @@
     </row>
     <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L524" s="1" t="s">
         <v>16</v>
@@ -12902,7 +12899,7 @@
     </row>
     <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="1" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L525" s="1" t="s">
         <v>16</v>
@@ -12913,7 +12910,7 @@
     </row>
     <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="1" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L526" s="1" t="s">
         <v>16</v>
@@ -12924,7 +12921,7 @@
     </row>
     <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L527" s="1" t="s">
         <v>16</v>
@@ -12935,7 +12932,7 @@
     </row>
     <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="1" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L528" s="1" t="s">
         <v>16</v>
@@ -12946,7 +12943,7 @@
     </row>
     <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="1" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="L529" s="1" t="s">
         <v>16</v>
@@ -12957,7 +12954,7 @@
     </row>
     <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="1" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="L530" s="1" t="s">
         <v>16</v>
@@ -12968,7 +12965,7 @@
     </row>
     <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="1" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L531" s="1" t="s">
         <v>16</v>
@@ -12979,7 +12976,7 @@
     </row>
     <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="1" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="L532" s="1" t="s">
         <v>16</v>
@@ -12990,7 +12987,7 @@
     </row>
     <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="1" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="L533" s="1" t="s">
         <v>16</v>
@@ -13001,7 +12998,7 @@
     </row>
     <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="L534" s="1" t="s">
         <v>16</v>
@@ -13012,7 +13009,7 @@
     </row>
     <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="L535" s="1" t="s">
         <v>16</v>
@@ -13023,7 +13020,7 @@
     </row>
     <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L536" s="1" t="s">
         <v>16</v>
@@ -13034,7 +13031,7 @@
     </row>
     <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="1" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="L537" s="1" t="s">
         <v>16</v>
@@ -13045,7 +13042,7 @@
     </row>
     <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="1" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="L538" s="1" t="s">
         <v>16</v>
@@ -13056,7 +13053,7 @@
     </row>
     <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="L539" s="1" t="s">
         <v>16</v>
@@ -13067,7 +13064,7 @@
     </row>
     <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="1" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L540" s="1" t="s">
         <v>16</v>
@@ -13078,7 +13075,7 @@
     </row>
     <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="1" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="L541" s="1" t="s">
         <v>16</v>
@@ -13089,7 +13086,7 @@
     </row>
     <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="L542" s="1" t="s">
         <v>16</v>
@@ -13100,7 +13097,7 @@
     </row>
     <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="L543" s="1" t="s">
         <v>16</v>
@@ -13111,7 +13108,7 @@
     </row>
     <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="L544" s="1" t="s">
         <v>16</v>
@@ -13122,7 +13119,7 @@
     </row>
     <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="L545" s="1" t="s">
         <v>16</v>
@@ -13133,7 +13130,7 @@
     </row>
     <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="1" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="L546" s="1" t="s">
         <v>16</v>
@@ -13144,7 +13141,7 @@
     </row>
     <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="1" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="L547" s="1" t="s">
         <v>16</v>
@@ -13155,7 +13152,7 @@
     </row>
     <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="L548" s="1" t="s">
         <v>16</v>
@@ -13166,7 +13163,7 @@
     </row>
     <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="1" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="L549" s="1" t="s">
         <v>16</v>
@@ -13177,7 +13174,7 @@
     </row>
     <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="1" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="L550" s="1" t="s">
         <v>16</v>
@@ -13188,7 +13185,7 @@
     </row>
     <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="1" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="L551" s="1" t="s">
         <v>16</v>
@@ -13199,7 +13196,7 @@
     </row>
     <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="1" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="L552" s="1" t="s">
         <v>16</v>
@@ -13210,7 +13207,7 @@
     </row>
     <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="1" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="L553" s="1" t="s">
         <v>16</v>
@@ -13221,7 +13218,7 @@
     </row>
     <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="1" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="L554" s="1" t="s">
         <v>16</v>
@@ -13232,7 +13229,7 @@
     </row>
     <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="L555" s="1" t="s">
         <v>16</v>
@@ -13243,7 +13240,7 @@
     </row>
     <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="1" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="L556" s="1" t="s">
         <v>16</v>
@@ -13254,7 +13251,7 @@
     </row>
     <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="1" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="L557" s="1" t="s">
         <v>16</v>
@@ -13265,7 +13262,7 @@
     </row>
     <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="1" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="L558" s="1" t="s">
         <v>16</v>
@@ -13276,7 +13273,7 @@
     </row>
     <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="1" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="L559" s="1" t="s">
         <v>16</v>
@@ -13287,7 +13284,7 @@
     </row>
     <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="L560" s="1" t="s">
         <v>16</v>
@@ -13298,7 +13295,7 @@
     </row>
     <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" s="1" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="L561" s="1" t="s">
         <v>16</v>
@@ -13309,7 +13306,7 @@
     </row>
     <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" s="1" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="L562" s="1" t="s">
         <v>16</v>
@@ -13320,7 +13317,7 @@
     </row>
     <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" s="1" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="L563" s="1" t="s">
         <v>16</v>
@@ -13331,7 +13328,7 @@
     </row>
     <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" s="1" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="L564" s="1" t="s">
         <v>16</v>
@@ -13342,7 +13339,7 @@
     </row>
     <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" s="1" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="L565" s="1" t="s">
         <v>16</v>
@@ -13353,7 +13350,7 @@
     </row>
     <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" s="1" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="L566" s="1" t="s">
         <v>16</v>
@@ -13364,7 +13361,7 @@
     </row>
     <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" s="1" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J567" s="1" t="s">
         <v>16</v>
@@ -13381,7 +13378,7 @@
     </row>
     <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" s="1" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J568" s="1" t="s">
         <v>16</v>
@@ -13398,7 +13395,7 @@
     </row>
     <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" s="1" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="J569" s="1" t="s">
         <v>16</v>
@@ -13415,7 +13412,7 @@
     </row>
     <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" s="1" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="J570" s="1" t="s">
         <v>16</v>
@@ -13432,7 +13429,7 @@
     </row>
     <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J571" s="1" t="s">
         <v>16</v>
@@ -13449,7 +13446,7 @@
     </row>
     <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" s="1" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J572" s="1" t="s">
         <v>16</v>
@@ -13466,7 +13463,7 @@
     </row>
     <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" s="1" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="J573" s="1" t="s">
         <v>16</v>
@@ -13483,7 +13480,7 @@
     </row>
     <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" s="1" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="H574" s="1" t="s">
         <v>16</v>
@@ -13494,7 +13491,7 @@
     </row>
     <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" s="1" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H575" s="1" t="s">
         <v>16</v>
@@ -13505,7 +13502,7 @@
     </row>
     <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" s="1" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="H576" s="1" t="s">
         <v>16</v>
@@ -13516,7 +13513,7 @@
     </row>
     <row r="577" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A577" s="1" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="H577" s="1" t="s">
         <v>16</v>
@@ -13527,7 +13524,7 @@
     </row>
     <row r="578" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A578" s="1" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="H578" s="1" t="s">
         <v>16</v>
@@ -13538,7 +13535,7 @@
     </row>
     <row r="579" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A579" s="1" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H579" s="1" t="s">
         <v>16</v>
@@ -13549,7 +13546,7 @@
     </row>
     <row r="580" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A580" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="H580" s="1" t="s">
         <v>16</v>
@@ -13560,7 +13557,7 @@
     </row>
     <row r="581" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="H581" s="1" t="s">
         <v>16</v>
@@ -13571,7 +13568,7 @@
     </row>
     <row r="582" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A582" s="1" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="H582" s="1" t="s">
         <v>16</v>
@@ -13582,7 +13579,7 @@
     </row>
     <row r="583" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A583" s="1" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H583" s="1" t="s">
         <v>16</v>
@@ -13593,7 +13590,7 @@
     </row>
     <row r="584" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A584" s="1" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="H584" s="1" t="s">
         <v>16</v>
@@ -13604,7 +13601,7 @@
     </row>
     <row r="585" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A585" s="1" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="H585" s="1" t="s">
         <v>16</v>
@@ -13615,7 +13612,7 @@
     </row>
     <row r="586" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A586" s="1" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="H586" s="1" t="s">
         <v>16</v>
@@ -13626,7 +13623,7 @@
     </row>
     <row r="587" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H587" s="1" t="s">
         <v>16</v>
@@ -13637,7 +13634,7 @@
     </row>
     <row r="588" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A588" s="1" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="H588" s="1" t="s">
         <v>16</v>
@@ -13648,7 +13645,7 @@
     </row>
     <row r="589" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A589" s="1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="H589" s="1" t="s">
         <v>16</v>
@@ -13659,7 +13656,7 @@
     </row>
     <row r="590" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A590" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="H590" s="1" t="s">
         <v>16</v>
@@ -13670,7 +13667,7 @@
     </row>
     <row r="591" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A591" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H591" s="1" t="s">
         <v>16</v>
@@ -13681,7 +13678,7 @@
     </row>
     <row r="592" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A592" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="H592" s="1" t="s">
         <v>16</v>
@@ -13692,7 +13689,7 @@
     </row>
     <row r="593" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A593" s="1" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="H593" s="1" t="s">
         <v>16</v>
@@ -13703,7 +13700,7 @@
     </row>
     <row r="594" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A594" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H594" s="1" t="s">
         <v>16</v>
@@ -13714,7 +13711,7 @@
     </row>
     <row r="595" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A595" s="1" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H595" s="1" t="s">
         <v>16</v>
@@ -13725,7 +13722,7 @@
     </row>
     <row r="596" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A596" s="1" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="H596" s="1" t="s">
         <v>16</v>
@@ -13736,7 +13733,7 @@
     </row>
     <row r="597" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A597" s="1" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="H597" s="1" t="s">
         <v>16</v>
@@ -13747,7 +13744,7 @@
     </row>
     <row r="598" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A598" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="H598" s="1" t="s">
         <v>16</v>
@@ -13758,7 +13755,7 @@
     </row>
     <row r="599" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A599" s="1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H599" s="1" t="s">
         <v>16</v>
@@ -13769,7 +13766,7 @@
     </row>
     <row r="600" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A600" s="1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H600" s="1" t="s">
         <v>16</v>
@@ -13780,7 +13777,7 @@
     </row>
     <row r="601" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A601" s="1" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="H601" s="1" t="s">
         <v>16</v>
@@ -13791,7 +13788,7 @@
     </row>
     <row r="602" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A602" s="1" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="H602" s="1" t="s">
         <v>16</v>
@@ -13802,7 +13799,7 @@
     </row>
     <row r="603" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A603" s="1" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="H603" s="1" t="s">
         <v>16</v>
@@ -13813,7 +13810,7 @@
     </row>
     <row r="604" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A604" s="1" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H604" s="1" t="s">
         <v>16</v>
@@ -13824,7 +13821,7 @@
     </row>
     <row r="605" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A605" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="H605" s="1" t="s">
         <v>16</v>
@@ -13835,7 +13832,7 @@
     </row>
     <row r="606" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A606" s="1" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H606" s="1" t="s">
         <v>16</v>
@@ -13846,7 +13843,7 @@
     </row>
     <row r="607" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A607" s="1" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="H607" s="1" t="s">
         <v>16</v>
@@ -13857,7 +13854,7 @@
     </row>
     <row r="608" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A608" s="1" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H608" s="1" t="s">
         <v>16</v>
@@ -13868,7 +13865,7 @@
     </row>
     <row r="609" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A609" s="1" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H609" s="1" t="s">
         <v>16</v>
@@ -13879,7 +13876,7 @@
     </row>
     <row r="610" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A610" s="1" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H610" s="1" t="s">
         <v>16</v>
@@ -13890,7 +13887,7 @@
     </row>
     <row r="611" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A611" s="1" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="H611" s="1" t="s">
         <v>16</v>
@@ -13901,7 +13898,7 @@
     </row>
     <row r="612" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A612" s="1" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H612" s="1" t="s">
         <v>16</v>
@@ -13912,7 +13909,7 @@
     </row>
     <row r="613" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A613" s="1" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="H613" s="1" t="s">
         <v>16</v>
@@ -13923,7 +13920,7 @@
     </row>
     <row r="614" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A614" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="H614" s="1" t="s">
         <v>16</v>
@@ -13934,7 +13931,7 @@
     </row>
     <row r="615" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A615" s="1" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H615" s="1" t="s">
         <v>16</v>
@@ -13945,7 +13942,7 @@
     </row>
     <row r="616" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A616" s="1" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="H616" s="1" t="s">
         <v>16</v>
@@ -13956,7 +13953,7 @@
     </row>
     <row r="617" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A617" s="1" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="H617" s="1" t="s">
         <v>16</v>
@@ -13967,7 +13964,7 @@
     </row>
     <row r="618" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A618" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="H618" s="1" t="s">
         <v>16</v>
@@ -13978,7 +13975,7 @@
     </row>
     <row r="619" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A619" s="1" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H619" s="1" t="s">
         <v>16</v>
@@ -13989,7 +13986,7 @@
     </row>
     <row r="620" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A620" s="1" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="H620" s="1" t="s">
         <v>16</v>
@@ -14000,7 +13997,7 @@
     </row>
     <row r="621" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A621" s="1" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H621" s="1" t="s">
         <v>16</v>
@@ -14011,7 +14008,7 @@
     </row>
     <row r="622" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H622" s="1" t="s">
         <v>16</v>
@@ -14022,7 +14019,7 @@
     </row>
     <row r="623" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A623" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="H623" s="1" t="s">
         <v>16</v>
@@ -14033,7 +14030,7 @@
     </row>
     <row r="624" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A624" s="1" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="H624" s="1" t="s">
         <v>16</v>
@@ -14044,7 +14041,7 @@
     </row>
     <row r="625" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A625" s="1" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H625" s="1" t="s">
         <v>16</v>
@@ -14055,7 +14052,7 @@
     </row>
     <row r="626" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A626" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="H626" s="1" t="s">
         <v>16</v>
@@ -14066,7 +14063,7 @@
     </row>
     <row r="627" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A627" s="1" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H627" s="1" t="s">
         <v>16</v>
@@ -14077,7 +14074,7 @@
     </row>
     <row r="628" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H628" s="1" t="s">
         <v>16</v>
@@ -14088,7 +14085,7 @@
     </row>
     <row r="629" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A629" s="1" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H629" s="1" t="s">
         <v>16</v>
@@ -14099,7 +14096,7 @@
     </row>
     <row r="630" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A630" s="1" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="H630" s="1" t="s">
         <v>16</v>
@@ -14110,7 +14107,7 @@
     </row>
     <row r="631" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A631" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="H631" s="1" t="s">
         <v>16</v>
@@ -14121,7 +14118,7 @@
     </row>
     <row r="632" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A632" s="1" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H632" s="1" t="s">
         <v>16</v>
@@ -14132,7 +14129,7 @@
     </row>
     <row r="633" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A633" s="1" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="H633" s="1" t="s">
         <v>16</v>
@@ -14143,7 +14140,7 @@
     </row>
     <row r="634" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A634" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="H634" s="1" t="s">
         <v>16</v>
@@ -14154,7 +14151,7 @@
     </row>
     <row r="635" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A635" s="1" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="H635" s="1" t="s">
         <v>16</v>
@@ -14165,7 +14162,7 @@
     </row>
     <row r="636" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A636" s="1" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H636" s="1" t="s">
         <v>16</v>
@@ -14176,7 +14173,7 @@
     </row>
     <row r="637" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A637" s="1" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="H637" s="1" t="s">
         <v>16</v>
@@ -14187,7 +14184,7 @@
     </row>
     <row r="638" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A638" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H638" s="1" t="s">
         <v>16</v>
@@ -14198,7 +14195,7 @@
     </row>
     <row r="639" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H639" s="1" t="s">
         <v>16</v>
@@ -14209,7 +14206,7 @@
     </row>
     <row r="640" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A640" s="1" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H640" s="1" t="s">
         <v>16</v>
@@ -14220,7 +14217,7 @@
     </row>
     <row r="641" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A641" s="1" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H641" s="1" t="s">
         <v>16</v>
@@ -14231,7 +14228,7 @@
     </row>
     <row r="642" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A642" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H642" s="1" t="s">
         <v>16</v>
@@ -14242,7 +14239,7 @@
     </row>
     <row r="643" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A643" s="1" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H643" s="1" t="s">
         <v>16</v>
@@ -14253,7 +14250,7 @@
     </row>
     <row r="644" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A644" s="1" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H644" s="1" t="s">
         <v>16</v>
@@ -14264,7 +14261,7 @@
     </row>
     <row r="645" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H645" s="1" t="s">
         <v>16</v>
@@ -14275,7 +14272,7 @@
     </row>
     <row r="646" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A646" s="1" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H646" s="1" t="s">
         <v>16</v>
@@ -14286,7 +14283,7 @@
     </row>
     <row r="647" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A647" s="1" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H647" s="1" t="s">
         <v>16</v>
@@ -14297,7 +14294,7 @@
     </row>
     <row r="648" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A648" s="1" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H648" s="1" t="s">
         <v>16</v>
@@ -14308,7 +14305,7 @@
     </row>
     <row r="649" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A649" s="1" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H649" s="1" t="s">
         <v>16</v>
@@ -14319,7 +14316,7 @@
     </row>
     <row r="650" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A650" s="1" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H650" s="1" t="s">
         <v>16</v>
@@ -14330,7 +14327,7 @@
     </row>
     <row r="651" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A651" s="1" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H651" s="1" t="s">
         <v>16</v>
@@ -14341,7 +14338,7 @@
     </row>
     <row r="652" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A652" s="1" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H652" s="1" t="s">
         <v>16</v>
@@ -14352,7 +14349,7 @@
     </row>
     <row r="653" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A653" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H653" s="1" t="s">
         <v>16</v>
@@ -14363,7 +14360,7 @@
     </row>
     <row r="654" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A654" s="1" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H654" s="1" t="s">
         <v>16</v>
@@ -14374,7 +14371,7 @@
     </row>
     <row r="655" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A655" s="1" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H655" s="1" t="s">
         <v>16</v>
@@ -14385,7 +14382,7 @@
     </row>
     <row r="656" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A656" s="1" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H656" s="1" t="s">
         <v>16</v>
@@ -14396,7 +14393,7 @@
     </row>
     <row r="657" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A657" s="1" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H657" s="1" t="s">
         <v>16</v>
@@ -14407,7 +14404,7 @@
     </row>
     <row r="658" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A658" s="1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H658" s="1" t="s">
         <v>16</v>
@@ -14418,7 +14415,7 @@
     </row>
     <row r="659" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A659" s="1" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H659" s="1" t="s">
         <v>16</v>
@@ -14429,7 +14426,7 @@
     </row>
     <row r="660" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A660" s="1" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H660" s="1" t="s">
         <v>16</v>
@@ -14440,7 +14437,7 @@
     </row>
     <row r="661" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A661" s="1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H661" s="1" t="s">
         <v>16</v>
@@ -14451,7 +14448,7 @@
     </row>
     <row r="662" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A662" s="1" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H662" s="1" t="s">
         <v>16</v>
@@ -14462,7 +14459,7 @@
     </row>
     <row r="663" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A663" s="1" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="H663" s="1" t="s">
         <v>16</v>
@@ -14473,7 +14470,7 @@
     </row>
     <row r="664" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A664" s="1" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="H664" s="1" t="s">
         <v>16</v>
@@ -14484,7 +14481,7 @@
     </row>
     <row r="665" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A665" s="1" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="H665" s="1" t="s">
         <v>16</v>
@@ -14495,7 +14492,7 @@
     </row>
     <row r="666" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A666" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="H666" s="1" t="s">
         <v>16</v>
@@ -14506,7 +14503,7 @@
     </row>
     <row r="667" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A667" s="1" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H667" s="1" t="s">
         <v>16</v>
@@ -14517,7 +14514,7 @@
     </row>
     <row r="668" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A668" s="1" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H668" s="1" t="s">
         <v>16</v>
@@ -14528,7 +14525,7 @@
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" s="1" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="H669" s="1" t="s">
         <v>16</v>
@@ -14539,7 +14536,7 @@
     </row>
     <row r="670" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A670" s="1" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="H670" s="1" t="s">
         <v>16</v>
@@ -14550,7 +14547,7 @@
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" s="1" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H671" s="1" t="s">
         <v>16</v>
@@ -14561,7 +14558,7 @@
     </row>
     <row r="672" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A672" s="1" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H672" s="1" t="s">
         <v>16</v>
@@ -14572,7 +14569,7 @@
     </row>
     <row r="673" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="H673" s="1" t="s">
         <v>16</v>
@@ -14583,7 +14580,7 @@
     </row>
     <row r="674" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A674" s="1" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H674" s="1" t="s">
         <v>16</v>
@@ -14594,7 +14591,7 @@
     </row>
     <row r="675" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A675" s="1" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H675" s="1" t="s">
         <v>16</v>
@@ -14605,7 +14602,7 @@
     </row>
     <row r="676" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A676" s="1" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="H676" s="1" t="s">
         <v>16</v>
@@ -14616,7 +14613,7 @@
     </row>
     <row r="677" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A677" s="1" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H677" s="1" t="s">
         <v>16</v>
@@ -14627,7 +14624,7 @@
     </row>
     <row r="678" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A678" s="1" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H678" s="1" t="s">
         <v>16</v>
@@ -14638,7 +14635,7 @@
     </row>
     <row r="679" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="H679" s="1" t="s">
         <v>16</v>
@@ -14649,7 +14646,7 @@
     </row>
     <row r="680" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A680" s="1" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="H680" s="1" t="s">
         <v>16</v>
@@ -14660,7 +14657,7 @@
     </row>
     <row r="681" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A681" s="1" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H681" s="1" t="s">
         <v>16</v>
@@ -14671,7 +14668,7 @@
     </row>
     <row r="682" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A682" s="1" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H682" s="1" t="s">
         <v>16</v>
@@ -14682,7 +14679,7 @@
     </row>
     <row r="683" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A683" s="1" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H683" s="1" t="s">
         <v>16</v>
@@ -14693,7 +14690,7 @@
     </row>
     <row r="684" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A684" s="1" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H684" s="1" t="s">
         <v>16</v>
@@ -14704,7 +14701,7 @@
     </row>
     <row r="685" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A685" s="1" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H685" s="1" t="s">
         <v>16</v>
@@ -14715,7 +14712,7 @@
     </row>
     <row r="686" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A686" s="1" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H686" s="1" t="s">
         <v>16</v>
@@ -14726,7 +14723,7 @@
     </row>
     <row r="687" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A687" s="1" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H687" s="1" t="s">
         <v>16</v>
@@ -14737,7 +14734,7 @@
     </row>
     <row r="688" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="H688" s="1" t="s">
         <v>16</v>
@@ -14748,7 +14745,7 @@
     </row>
     <row r="689" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A689" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H689" s="1" t="s">
         <v>16</v>
@@ -14759,7 +14756,7 @@
     </row>
     <row r="690" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A690" s="1" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H690" s="1" t="s">
         <v>16</v>
@@ -14770,7 +14767,7 @@
     </row>
     <row r="691" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A691" s="1" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H691" s="1" t="s">
         <v>16</v>
@@ -14781,7 +14778,7 @@
     </row>
     <row r="692" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A692" s="1" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H692" s="1" t="s">
         <v>16</v>
@@ -14792,7 +14789,7 @@
     </row>
     <row r="693" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A693" s="1" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="H693" s="1" t="s">
         <v>16</v>
@@ -14803,7 +14800,7 @@
     </row>
     <row r="694" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="H694" s="1" t="s">
         <v>16</v>
@@ -14814,7 +14811,7 @@
     </row>
     <row r="695" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A695" s="1" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H695" s="1" t="s">
         <v>16</v>
@@ -14825,7 +14822,7 @@
     </row>
     <row r="696" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A696" s="1" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H696" s="1" t="s">
         <v>16</v>
@@ -14836,7 +14833,7 @@
     </row>
     <row r="697" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A697" s="1" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="H697" s="1" t="s">
         <v>16</v>
@@ -14847,7 +14844,7 @@
     </row>
     <row r="698" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A698" s="1" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="H698" s="1" t="s">
         <v>16</v>
@@ -14858,7 +14855,7 @@
     </row>
     <row r="699" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A699" s="1" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H699" s="1" t="s">
         <v>16</v>
@@ -14869,7 +14866,7 @@
     </row>
     <row r="700" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A700" s="1" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="H700" s="1" t="s">
         <v>16</v>
@@ -14880,7 +14877,7 @@
     </row>
     <row r="701" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A701" s="1" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H701" s="1" t="s">
         <v>16</v>
@@ -14891,7 +14888,7 @@
     </row>
     <row r="702" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A702" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="H702" s="1" t="s">
         <v>16</v>
@@ -14902,7 +14899,7 @@
     </row>
     <row r="703" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A703" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="H703" s="1" t="s">
         <v>16</v>
@@ -14913,7 +14910,7 @@
     </row>
     <row r="704" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A704" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="H704" s="1" t="s">
         <v>16</v>
@@ -14924,7 +14921,7 @@
     </row>
     <row r="705" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A705" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="H705" s="1" t="s">
         <v>16</v>
@@ -14935,7 +14932,7 @@
     </row>
     <row r="706" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A706" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H706" s="1" t="s">
         <v>16</v>
@@ -14946,7 +14943,7 @@
     </row>
     <row r="707" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A707" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H707" s="1" t="s">
         <v>16</v>
@@ -14957,7 +14954,7 @@
     </row>
     <row r="708" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A708" s="1" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H708" s="1" t="s">
         <v>16</v>
@@ -14968,7 +14965,7 @@
     </row>
     <row r="709" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A709" s="1" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H709" s="1" t="s">
         <v>16</v>
@@ -14979,7 +14976,7 @@
     </row>
     <row r="710" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A710" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="H710" s="1" t="s">
         <v>16</v>
@@ -14990,7 +14987,7 @@
     </row>
     <row r="711" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A711" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H711" s="1" t="s">
         <v>16</v>
@@ -15001,7 +14998,7 @@
     </row>
     <row r="712" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A712" s="1" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H712" s="1" t="s">
         <v>16</v>
@@ -15012,7 +15009,7 @@
     </row>
     <row r="713" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A713" s="1" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H713" s="1" t="s">
         <v>16</v>
@@ -15023,7 +15020,7 @@
     </row>
     <row r="714" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A714" s="1" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H714" s="1" t="s">
         <v>16</v>
@@ -15034,7 +15031,7 @@
     </row>
     <row r="715" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A715" s="1" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="H715" s="1" t="s">
         <v>16</v>
@@ -15045,7 +15042,7 @@
     </row>
     <row r="716" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A716" s="1" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="H716" s="1" t="s">
         <v>16</v>
@@ -15056,7 +15053,7 @@
     </row>
     <row r="717" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A717" s="1" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H717" s="1" t="s">
         <v>16</v>
@@ -15067,7 +15064,7 @@
     </row>
     <row r="718" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A718" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H718" s="1" t="s">
         <v>16</v>
@@ -15078,7 +15075,7 @@
     </row>
     <row r="719" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A719" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="H719" s="1" t="s">
         <v>16</v>
@@ -15089,7 +15086,7 @@
     </row>
     <row r="720" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A720" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="H720" s="1" t="s">
         <v>16</v>
@@ -15100,7 +15097,7 @@
     </row>
     <row r="721" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A721" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H721" s="1" t="s">
         <v>16</v>
@@ -15111,7 +15108,7 @@
     </row>
     <row r="722" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A722" s="1" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H722" s="1" t="s">
         <v>16</v>
@@ -15122,7 +15119,7 @@
     </row>
     <row r="723" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A723" s="1" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H723" s="1" t="s">
         <v>16</v>
@@ -15133,7 +15130,7 @@
     </row>
     <row r="724" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A724" s="1" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H724" s="1" t="s">
         <v>16</v>
@@ -15144,7 +15141,7 @@
     </row>
     <row r="725" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A725" s="1" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="H725" s="1" t="s">
         <v>16</v>
@@ -15155,7 +15152,7 @@
     </row>
     <row r="726" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A726" s="1" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="H726" s="1" t="s">
         <v>16</v>
@@ -15166,7 +15163,7 @@
     </row>
     <row r="727" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A727" s="1" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H727" s="1" t="s">
         <v>16</v>
@@ -15177,7 +15174,7 @@
     </row>
     <row r="728" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A728" s="1" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="R728" s="1" t="s">
         <v>16</v>
@@ -15188,7 +15185,7 @@
     </row>
     <row r="729" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A729" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="R729" s="1" t="s">
         <v>16</v>
@@ -15199,7 +15196,7 @@
     </row>
     <row r="730" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A730" s="1" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="R730" s="1" t="s">
         <v>16</v>
@@ -15210,7 +15207,7 @@
     </row>
     <row r="731" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A731" s="1" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="R731" s="1" t="s">
         <v>16</v>
@@ -15221,7 +15218,7 @@
     </row>
     <row r="732" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A732" s="1" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="R732" s="1" t="s">
         <v>16</v>
@@ -15232,7 +15229,7 @@
     </row>
     <row r="733" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A733" s="1" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="R733" s="1" t="s">
         <v>16</v>
@@ -15243,7 +15240,7 @@
     </row>
     <row r="734" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A734" s="1" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="R734" s="1" t="s">
         <v>16</v>
@@ -15254,7 +15251,7 @@
     </row>
     <row r="735" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A735" s="1" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="R735" s="1" t="s">
         <v>16</v>
@@ -15265,7 +15262,7 @@
     </row>
     <row r="736" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A736" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="R736" s="1" t="s">
         <v>16</v>
@@ -15276,7 +15273,7 @@
     </row>
     <row r="737" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A737" s="1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="R737" s="1" t="s">
         <v>16</v>
@@ -15287,7 +15284,7 @@
     </row>
     <row r="738" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A738" s="1" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="R738" s="1" t="s">
         <v>16</v>
@@ -15298,7 +15295,7 @@
     </row>
     <row r="739" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A739" s="1" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="R739" s="1" t="s">
         <v>16</v>
@@ -15309,7 +15306,7 @@
     </row>
     <row r="740" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A740" s="1" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="R740" s="1" t="s">
         <v>16</v>
@@ -15320,7 +15317,7 @@
     </row>
     <row r="741" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A741" s="1" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="R741" s="1" t="s">
         <v>16</v>
@@ -15331,7 +15328,7 @@
     </row>
     <row r="742" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A742" s="1" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="R742" s="1" t="s">
         <v>16</v>
@@ -15342,7 +15339,7 @@
     </row>
     <row r="743" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A743" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="V743" s="1" t="s">
         <v>16</v>
@@ -15350,12 +15347,12 @@
     </row>
     <row r="744" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A744" s="1" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="745" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A745" s="1" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="Z745" s="1" t="s">
         <v>16</v>
@@ -15363,7 +15360,7 @@
     </row>
     <row r="746" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A746" s="1" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="P746" s="1" t="s">
         <v>16</v>
@@ -15374,7 +15371,7 @@
     </row>
     <row r="747" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A747" s="1" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="R747" s="1" t="s">
         <v>16</v>
@@ -15385,7 +15382,7 @@
     </row>
     <row r="748" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A748" s="1" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="P748" s="1" t="s">
         <v>16</v>
@@ -15396,7 +15393,7 @@
     </row>
     <row r="749" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A749" s="1" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AA749" s="1" t="s">
         <v>16</v>
@@ -15503,7 +15500,7 @@
     </row>
     <row r="750" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A750" s="1" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="AA750" s="1" t="s">
         <v>16</v>
@@ -15514,7 +15511,7 @@
     </row>
     <row r="751" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A751" s="1" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="AA751" s="1" t="s">
         <v>16</v>
@@ -15531,7 +15528,7 @@
     </row>
     <row r="752" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A752" s="1" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="AC752" s="1" t="s">
         <v>16</v>
@@ -15542,7 +15539,7 @@
     </row>
     <row r="753" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A753" s="1" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="AG753" s="1" t="s">
         <v>16</v>
@@ -15553,7 +15550,7 @@
     </row>
     <row r="754" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A754" s="1" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AM754" s="1" t="s">
         <v>16</v>
@@ -15564,7 +15561,7 @@
     </row>
     <row r="755" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A755" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="P755" s="1" t="s">
         <v>16</v>
@@ -15575,7 +15572,7 @@
     </row>
     <row r="756" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A756" s="1" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="AA756" s="1" t="s">
         <v>16</v>
@@ -15682,7 +15679,7 @@
     </row>
     <row r="757" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A757" s="1" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="AA757" s="1" t="s">
         <v>16</v>
@@ -15789,7 +15786,7 @@
     </row>
     <row r="758" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A758" s="1" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="AA758" s="1" t="s">
         <v>16</v>
@@ -15896,7 +15893,7 @@
     </row>
     <row r="759" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A759" s="1" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="AA759" s="1" t="s">
         <v>16</v>
@@ -15907,7 +15904,7 @@
     </row>
     <row r="760" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A760" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AA760" s="1" t="s">
         <v>16</v>
@@ -16014,7 +16011,7 @@
     </row>
     <row r="761" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A761" s="1" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="AA761" s="1" t="s">
         <v>16</v>
@@ -16025,7 +16022,7 @@
     </row>
     <row r="762" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A762" s="1" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="AA762" s="1" t="s">
         <v>16</v>
@@ -16042,7 +16039,7 @@
     </row>
     <row r="763" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A763" s="1" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="AC763" s="1" t="s">
         <v>16</v>
@@ -16053,7 +16050,7 @@
     </row>
     <row r="764" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A764" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="AA764" s="1" t="s">
         <v>16</v>
@@ -16160,7 +16157,7 @@
     </row>
     <row r="765" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A765" s="1" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AC765" s="1" t="s">
         <v>16</v>
@@ -16171,7 +16168,7 @@
     </row>
     <row r="766" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A766" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="AA766" s="1" t="s">
         <v>16</v>
@@ -16278,7 +16275,7 @@
     </row>
     <row r="767" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A767" s="1" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="AU767" s="1" t="s">
         <v>16</v>
@@ -16289,7 +16286,7 @@
     </row>
     <row r="768" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A768" s="1" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AG768" s="1" t="s">
         <v>16</v>
@@ -16300,7 +16297,7 @@
     </row>
     <row r="769" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A769" s="1" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="AG769" s="1" t="s">
         <v>16</v>
@@ -16311,7 +16308,7 @@
     </row>
     <row r="770" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A770" s="1" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="AG770" s="1" t="s">
         <v>16</v>
@@ -16322,7 +16319,7 @@
     </row>
     <row r="771" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A771" s="1" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="AM771" s="1" t="s">
         <v>16</v>
@@ -16333,7 +16330,7 @@
     </row>
     <row r="772" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A772" s="1" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="P772" s="1" t="s">
         <v>16</v>
@@ -16344,7 +16341,7 @@
     </row>
     <row r="773" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A773" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="AA773" s="1" t="s">
         <v>16</v>
@@ -16451,7 +16448,7 @@
     </row>
     <row r="774" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A774" s="1" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="AA774" s="1" t="s">
         <v>16</v>
@@ -16558,7 +16555,7 @@
     </row>
     <row r="775" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A775" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AA775" s="1" t="s">
         <v>16</v>
@@ -16569,7 +16566,7 @@
     </row>
     <row r="776" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A776" s="1" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AA776" s="1" t="s">
         <v>16</v>
@@ -16586,7 +16583,7 @@
     </row>
     <row r="777" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A777" s="1" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AU777" s="1" t="s">
         <v>16</v>
@@ -16597,7 +16594,7 @@
     </row>
     <row r="778" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A778" s="1" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AG778" s="1" t="s">
         <v>16</v>
@@ -16608,7 +16605,7 @@
     </row>
     <row r="779" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A779" s="1" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="P779" s="1" t="s">
         <v>16</v>
@@ -16619,7 +16616,7 @@
     </row>
     <row r="780" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A780" s="1" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="P780" s="1" t="s">
         <v>16</v>
@@ -16630,7 +16627,7 @@
     </row>
     <row r="781" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A781" s="1" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="AA781" s="1" t="s">
         <v>16</v>
@@ -16737,7 +16734,7 @@
     </row>
     <row r="782" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A782" s="1" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AA782" s="1" t="s">
         <v>16</v>
@@ -16748,7 +16745,7 @@
     </row>
     <row r="783" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A783" s="1" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="AA783" s="1" t="s">
         <v>16</v>
@@ -16855,7 +16852,7 @@
     </row>
     <row r="784" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A784" s="1" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AA784" s="1" t="s">
         <v>16</v>
@@ -16866,7 +16863,7 @@
     </row>
     <row r="785" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A785" s="1" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AA785" s="1" t="s">
         <v>16</v>
@@ -16889,7 +16886,7 @@
     </row>
     <row r="786" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A786" s="1" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AU786" s="1" t="s">
         <v>16</v>
@@ -16900,7 +16897,7 @@
     </row>
     <row r="787" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A787" s="1" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AG787" s="1" t="s">
         <v>16</v>
@@ -16911,7 +16908,7 @@
     </row>
     <row r="788" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A788" s="5" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AM788" s="1" t="s">
         <v>16</v>
@@ -16922,7 +16919,7 @@
     </row>
     <row r="789" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A789" s="1" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="P789" s="1" t="s">
         <v>16</v>
@@ -16933,7 +16930,7 @@
     </row>
     <row r="790" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A790" s="1" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="P790" s="1" t="s">
         <v>16</v>
@@ -16950,7 +16947,7 @@
     </row>
     <row r="791" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A791" s="1" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B791" s="1" t="s">
         <v>16</v>
@@ -16961,7 +16958,7 @@
     </row>
     <row r="792" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A792" s="1" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B792" s="1" t="s">
         <v>16</v>
@@ -16972,7 +16969,7 @@
     </row>
     <row r="793" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A793" s="1" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B793" s="1" t="s">
         <v>16</v>
@@ -16983,7 +16980,7 @@
     </row>
     <row r="794" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A794" s="1" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B794" s="1" t="s">
         <v>16</v>
@@ -17000,7 +16997,7 @@
     </row>
     <row r="795" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A795" s="1" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B795" s="1" t="s">
         <v>16</v>
@@ -17017,7 +17014,7 @@
     </row>
     <row r="796" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A796" s="1" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B796" s="1" t="s">
         <v>16</v>
@@ -17040,7 +17037,7 @@
     </row>
     <row r="797" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A797" s="1" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B797" s="1" t="s">
         <v>16</v>
@@ -17057,7 +17054,7 @@
     </row>
     <row r="798" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A798" s="1" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B798" s="1" t="s">
         <v>16</v>
@@ -17068,7 +17065,7 @@
     </row>
     <row r="799" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A799" s="1" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B799" s="1" t="s">
         <v>16</v>
@@ -17085,7 +17082,7 @@
     </row>
     <row r="800" spans="1:58" x14ac:dyDescent="0.2">
       <c r="A800" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B800" s="1" t="s">
         <v>16</v>
@@ -17096,7 +17093,7 @@
     </row>
     <row r="801" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A801" s="1" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B801" s="1" t="s">
         <v>16</v>
@@ -17119,7 +17116,7 @@
     </row>
     <row r="802" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A802" s="1" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B802" s="1" t="s">
         <v>16</v>
@@ -17130,7 +17127,7 @@
     </row>
     <row r="803" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A803" s="1" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B803" s="1" t="s">
         <v>16</v>
@@ -17147,7 +17144,7 @@
     </row>
     <row r="804" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A804" s="1" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B804" s="1" t="s">
         <v>16</v>
@@ -17164,7 +17161,7 @@
     </row>
     <row r="805" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A805" s="1" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B805" s="1" t="s">
         <v>16</v>
@@ -17184,7 +17181,7 @@
     </row>
     <row r="806" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A806" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B806" s="1" t="s">
         <v>16</v>
@@ -17195,7 +17192,7 @@
     </row>
     <row r="807" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A807" s="1" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B807" s="1" t="s">
         <v>16</v>
@@ -17206,7 +17203,7 @@
     </row>
     <row r="808" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A808" s="1" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F808" s="1" t="s">
         <v>16</v>
@@ -17220,7 +17217,7 @@
     </row>
     <row r="809" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A809" s="1" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B809" s="1" t="s">
         <v>16</v>
@@ -17237,7 +17234,7 @@
     </row>
     <row r="810" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A810" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B810" s="1" t="s">
         <v>16</v>
@@ -17248,7 +17245,7 @@
     </row>
     <row r="811" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A811" s="1" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B811" s="1" t="s">
         <v>16</v>
@@ -17259,7 +17256,7 @@
     </row>
     <row r="812" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A812" s="1" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B812" s="1" t="s">
         <v>16</v>
@@ -17276,7 +17273,7 @@
     </row>
     <row r="813" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A813" s="1" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B813" s="1" t="s">
         <v>16</v>
@@ -17287,7 +17284,7 @@
     </row>
     <row r="814" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A814" s="1" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B814" s="1" t="s">
         <v>16</v>
@@ -17304,7 +17301,7 @@
     </row>
     <row r="815" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A815" s="1" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B815" s="1" t="s">
         <v>16</v>
@@ -17315,7 +17312,7 @@
     </row>
     <row r="816" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A816" s="1" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B816" s="1" t="s">
         <v>16</v>
@@ -17326,7 +17323,7 @@
     </row>
     <row r="817" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B817" s="1" t="s">
         <v>16</v>
@@ -17349,7 +17346,7 @@
     </row>
     <row r="818" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B818" s="1" t="s">
         <v>16</v>
@@ -17360,7 +17357,7 @@
     </row>
     <row r="819" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B819" s="1" t="s">
         <v>16</v>
@@ -17371,7 +17368,7 @@
     </row>
     <row r="820" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B820" s="1" t="s">
         <v>16</v>
@@ -17382,7 +17379,7 @@
     </row>
     <row r="821" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B821" s="1" t="s">
         <v>16</v>
@@ -17393,7 +17390,7 @@
     </row>
     <row r="822" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B822" s="1" t="s">
         <v>16</v>
@@ -17404,7 +17401,7 @@
     </row>
     <row r="823" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B823" s="1" t="s">
         <v>16</v>
@@ -17415,7 +17412,7 @@
     </row>
     <row r="824" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B824" s="1" t="s">
         <v>16</v>
@@ -17429,7 +17426,7 @@
     </row>
     <row r="825" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B825" s="1" t="s">
         <v>16</v>
@@ -17440,7 +17437,7 @@
     </row>
     <row r="826" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="B826" s="1" t="s">
         <v>16</v>
@@ -17451,7 +17448,7 @@
     </row>
     <row r="827" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B827" s="1" t="s">
         <v>16</v>
@@ -17462,7 +17459,7 @@
     </row>
     <row r="828" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B828" s="1" t="s">
         <v>16</v>
@@ -17473,7 +17470,7 @@
     </row>
     <row r="829" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="B829" s="1" t="s">
         <v>16</v>
@@ -17484,7 +17481,7 @@
     </row>
     <row r="830" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B830" s="1" t="s">
         <v>16</v>
@@ -17495,7 +17492,7 @@
     </row>
     <row r="831" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B831" s="1" t="s">
         <v>16</v>
@@ -17506,7 +17503,7 @@
     </row>
     <row r="832" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B832" s="1" t="s">
         <v>16</v>
@@ -17523,7 +17520,7 @@
     </row>
     <row r="833" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>16</v>
@@ -17537,7 +17534,7 @@
     </row>
     <row r="834" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>16</v>
@@ -17554,7 +17551,7 @@
     </row>
     <row r="835" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D835" s="1" t="s">
         <v>16</v>
@@ -17568,7 +17565,7 @@
     </row>
     <row r="836" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -17582,7 +17579,7 @@
     </row>
     <row r="837" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -17596,7 +17593,7 @@
     </row>
     <row r="838" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B838" s="1" t="s">
         <v>16</v>
@@ -17610,7 +17607,7 @@
     </row>
     <row r="839" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>16</v>
@@ -17624,7 +17621,7 @@
     </row>
     <row r="840" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>16</v>
@@ -17638,7 +17635,7 @@
     </row>
     <row r="841" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D841" s="1" t="s">
         <v>16</v>
@@ -17652,7 +17649,7 @@
     </row>
     <row r="842" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
@@ -17663,7 +17660,7 @@
     </row>
     <row r="843" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -17674,7 +17671,7 @@
     </row>
     <row r="844" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D844" s="1" t="s">
         <v>16</v>
@@ -17685,7 +17682,7 @@
     </row>
     <row r="845" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A845" s="9" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="B845" s="9" t="s">
         <v>16</v>
@@ -18744,7 +18741,7 @@
     </row>
     <row r="846" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A846" s="1" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="AI846" s="1" t="s">
         <v>16</v>
@@ -18755,7 +18752,7 @@
     </row>
     <row r="847" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="AM847" s="1" t="s">
         <v>16</v>
@@ -18772,7 +18769,7 @@
     </row>
     <row r="848" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="AI848" s="1" t="s">
         <v>16</v>
@@ -18789,7 +18786,7 @@
     </row>
     <row r="849" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="BC849" s="1" t="s">
         <v>16</v>
@@ -18800,7 +18797,7 @@
     </row>
     <row r="850" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="AK850" s="1" t="s">
         <v>16</v>
@@ -18811,7 +18808,7 @@
     </row>
     <row r="851" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AI851" s="1" t="s">
         <v>16</v>
@@ -18828,7 +18825,7 @@
     </row>
     <row r="852" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="BA852" s="1" t="s">
         <v>16</v>
@@ -18839,7 +18836,7 @@
     </row>
     <row r="853" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="AA853" s="1" t="s">
         <v>16</v>
@@ -18946,7 +18943,7 @@
     </row>
     <row r="854" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK854" s="1" t="s">
         <v>16</v>
@@ -18957,7 +18954,7 @@
     </row>
     <row r="855" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AA855" s="1" t="s">
         <v>16</v>
@@ -19064,7 +19061,7 @@
     </row>
     <row r="856" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="U856" s="1" t="s">
         <v>16</v>
@@ -19072,7 +19069,7 @@
     </row>
     <row r="857" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="U857" s="1" t="s">
         <v>16</v>
@@ -19080,7 +19077,7 @@
     </row>
     <row r="858" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="P858" s="1" t="s">
         <v>16</v>
@@ -19091,7 +19088,7 @@
     </row>
     <row r="859" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="R859" s="1" t="s">
         <v>16</v>
@@ -19102,7 +19099,7 @@
     </row>
     <row r="860" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P860" s="1" t="s">
         <v>16</v>
@@ -19113,7 +19110,7 @@
     </row>
     <row r="861" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P861" s="1" t="s">
         <v>16</v>
@@ -19124,7 +19121,7 @@
     </row>
     <row r="862" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P862" s="1" t="s">
         <v>16</v>
@@ -19135,7 +19132,7 @@
     </row>
     <row r="863" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P863" s="1" t="s">
         <v>16</v>
@@ -19146,7 +19143,7 @@
     </row>
     <row r="864" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P864" s="1" t="s">
         <v>16</v>
@@ -19157,7 +19154,7 @@
     </row>
     <row r="865" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P865" s="1" t="s">
         <v>16</v>
@@ -19168,7 +19165,7 @@
     </row>
     <row r="866" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P866" s="1" t="s">
         <v>16</v>
@@ -19179,7 +19176,7 @@
     </row>
     <row r="867" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P867" s="1" t="s">
         <v>16</v>
@@ -19190,7 +19187,7 @@
     </row>
     <row r="868" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P868" s="1" t="s">
         <v>16</v>
@@ -19201,7 +19198,7 @@
     </row>
     <row r="869" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P869" s="1" t="s">
         <v>16</v>
@@ -19212,7 +19209,7 @@
     </row>
     <row r="870" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P870" s="1" t="s">
         <v>16</v>
@@ -19223,7 +19220,7 @@
     </row>
     <row r="871" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P871" s="1" t="s">
         <v>16</v>
@@ -19234,7 +19231,7 @@
     </row>
     <row r="872" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P872" s="1" t="s">
         <v>16</v>
@@ -19251,7 +19248,7 @@
     </row>
     <row r="873" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="P873" s="1" t="s">
         <v>16</v>
@@ -19262,7 +19259,7 @@
     </row>
     <row r="874" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="U874" s="1" t="s">
         <v>16</v>
@@ -19270,7 +19267,7 @@
     </row>
     <row r="875" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AA875" s="1" t="s">
         <v>16</v>
@@ -19377,7 +19374,7 @@
     </row>
     <row r="876" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AA876" s="1" t="s">
         <v>16</v>
@@ -19484,7 +19481,7 @@
     </row>
     <row r="877" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AA877" s="1" t="s">
         <v>16</v>
@@ -19591,7 +19588,7 @@
     </row>
     <row r="878" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA878" s="1" t="s">
         <v>16</v>
@@ -19698,7 +19695,7 @@
     </row>
     <row r="879" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA879" s="1" t="s">
         <v>16</v>
@@ -19805,7 +19802,7 @@
     </row>
     <row r="880" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="AA880" s="1" t="s">
         <v>16</v>
@@ -19912,7 +19909,7 @@
     </row>
     <row r="881" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AA881" s="1" t="s">
         <v>16</v>

--- a/app/data/pool_index.xlsx
+++ b/app/data/pool_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\discovery\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B60A6759-A789-4E7C-A4F9-3EFB622C1197}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{760CF9DC-92D5-471D-922D-3A4624D72430}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tiers" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4024" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4025" uniqueCount="1054">
   <si>
     <t>number</t>
   </si>
@@ -3109,9 +3109,6 @@
     <t>Tier 2</t>
   </si>
   <si>
-    <t>schedule36@gsa.gov</t>
-  </si>
-  <si>
     <t>https://www.gsa.gov/buying-selling/purchasing-programs/gsa-schedules/list-of-gsa-schedules/schedule-36imaging-document-solution/records-management-solutions</t>
   </si>
   <si>
@@ -3191,6 +3188,12 @@
   </si>
   <si>
     <t>HCATS Pool 2</t>
+  </si>
+  <si>
+    <t>R617</t>
+  </si>
+  <si>
+    <t>RecordsManagement@gsa.gov</t>
   </si>
 </sst>
 </file>
@@ -3686,9 +3689,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3884,19 +3887,19 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>1027</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>1028</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>1025</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>1026</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>16</v>
@@ -3916,7 +3919,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMI71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
@@ -4429,7 +4432,7 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>50</v>
@@ -4443,7 +4446,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>40</v>
@@ -4752,123 +4755,123 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B61" s="1">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B62" s="1">
         <v>2</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B63" s="1">
         <v>3</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B64" s="1">
         <v>4</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B65" s="1">
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B66" s="1">
         <v>6</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B67" s="1">
         <v>7</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B68" s="1">
         <v>8</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B69" s="1">
         <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B70" s="1">
         <v>10</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B71" s="1">
         <v>11</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
   </sheetData>
@@ -5081,37 +5084,37 @@
         <v>146</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
@@ -6879,13 +6882,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:AMK881"/>
+  <dimension ref="A1:AMK882"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B822" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="BH825" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A710" sqref="A710"/>
-      <selection pane="bottomRight" activeCell="D848" sqref="D848"/>
+      <selection pane="bottomRight" activeCell="BI832" sqref="BI832:BS832"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7075,37 +7078,37 @@
         <v>146</v>
       </c>
       <c r="BI1" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>1040</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>1046</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>1047</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>1048</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>1050</v>
       </c>
     </row>
     <row r="2" spans="1:71" x14ac:dyDescent="0.2">
@@ -17321,7 +17324,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="817" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A817" s="1" t="s">
         <v>923</v>
       </c>
@@ -17344,7 +17347,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="818" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A818" s="1" t="s">
         <v>924</v>
       </c>
@@ -17355,7 +17358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="819" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A819" s="1" t="s">
         <v>925</v>
       </c>
@@ -17366,7 +17369,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="820" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A820" s="1" t="s">
         <v>926</v>
       </c>
@@ -17377,7 +17380,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="821" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A821" s="1" t="s">
         <v>927</v>
       </c>
@@ -17388,7 +17391,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="822" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A822" s="1" t="s">
         <v>928</v>
       </c>
@@ -17399,7 +17402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="823" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A823" s="1" t="s">
         <v>929</v>
       </c>
@@ -17410,7 +17413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="824" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A824" s="1" t="s">
         <v>930</v>
       </c>
@@ -17424,7 +17427,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="825" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A825" s="1" t="s">
         <v>931</v>
       </c>
@@ -17435,7 +17438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="826" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A826" s="1" t="s">
         <v>932</v>
       </c>
@@ -17446,7 +17449,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="827" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A827" s="1" t="s">
         <v>933</v>
       </c>
@@ -17457,7 +17460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="828" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A828" s="1" t="s">
         <v>934</v>
       </c>
@@ -17468,7 +17471,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="829" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A829" s="1" t="s">
         <v>935</v>
       </c>
@@ -17479,7 +17482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="830" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A830" s="1" t="s">
         <v>936</v>
       </c>
@@ -17490,7 +17493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="831" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A831" s="1" t="s">
         <v>937</v>
       </c>
@@ -17501,26 +17504,47 @@
         <v>16</v>
       </c>
     </row>
-    <row r="832" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:71" x14ac:dyDescent="0.2">
       <c r="A832" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B832" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C832" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R832" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S832" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="BI832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BJ832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BK832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BL832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BM832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BN832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BO832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BP832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR832" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="BS832" s="10" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="833" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A833" s="1" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="B833" s="1" t="s">
         <v>16</v>
@@ -17528,13 +17552,16 @@
       <c r="C833" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V833" s="1" t="s">
+      <c r="R833" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S833" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="834" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A834" s="1" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B834" s="1" t="s">
         <v>16</v>
@@ -17542,30 +17569,30 @@
       <c r="C834" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R834" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S834" s="1" t="s">
+      <c r="V834" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="835" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A835" s="1" t="s">
-        <v>941</v>
-      </c>
-      <c r="D835" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E835" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U835" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B835" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R835" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S835" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="836" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A836" s="1" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D836" s="1" t="s">
         <v>16</v>
@@ -17579,7 +17606,7 @@
     </row>
     <row r="837" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A837" s="1" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D837" s="1" t="s">
         <v>16</v>
@@ -17593,21 +17620,21 @@
     </row>
     <row r="838" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A838" s="1" t="s">
-        <v>944</v>
-      </c>
-      <c r="B838" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C838" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="X838" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U838" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="839" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A839" s="1" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="B839" s="1" t="s">
         <v>16</v>
@@ -17621,7 +17648,7 @@
     </row>
     <row r="840" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A840" s="1" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B840" s="1" t="s">
         <v>16</v>
@@ -17629,38 +17656,41 @@
       <c r="C840" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V840" s="1" t="s">
+      <c r="X840" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="841" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A841" s="1" t="s">
-        <v>947</v>
-      </c>
-      <c r="D841" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E841" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="U841" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B841" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V841" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="842" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A842" s="1" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D842" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E842" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U842" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="843" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A843" s="1" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D843" s="1" t="s">
         <v>16</v>
@@ -17671,1405 +17701,1375 @@
     </row>
     <row r="844" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A844" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="845" spans="1:1025" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A845" s="1" t="s">
         <v>950</v>
       </c>
-      <c r="D844" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E844" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="845" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A845" s="9" t="s">
+      <c r="D845" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1025" s="7" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A846" s="9" t="s">
         <v>951</v>
       </c>
-      <c r="B845" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C845" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D845" s="9"/>
-      <c r="E845" s="9"/>
-      <c r="F845" s="9"/>
-      <c r="G845" s="9"/>
-      <c r="H845" s="9"/>
-      <c r="I845" s="9"/>
-      <c r="J845" s="9"/>
-      <c r="K845" s="9"/>
-      <c r="L845" s="9"/>
-      <c r="M845" s="9"/>
-      <c r="N845" s="9"/>
-      <c r="O845" s="9"/>
-      <c r="P845" s="9"/>
-      <c r="Q845" s="9"/>
-      <c r="R845" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="S845" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="T845" s="9"/>
-      <c r="U845" s="9"/>
-      <c r="V845" s="9"/>
-      <c r="W845" s="9"/>
-      <c r="X845" s="9"/>
-      <c r="Y845" s="9"/>
-      <c r="Z845" s="9"/>
-      <c r="AA845" s="9"/>
-      <c r="AB845" s="9"/>
-      <c r="AC845" s="9"/>
-      <c r="AD845" s="9"/>
-      <c r="AE845" s="9"/>
-      <c r="AF845" s="9"/>
-      <c r="AG845" s="9"/>
-      <c r="AH845" s="9"/>
-      <c r="AI845" s="9"/>
-      <c r="AJ845" s="9"/>
-      <c r="AK845" s="9"/>
-      <c r="AL845" s="9"/>
-      <c r="AM845" s="9"/>
-      <c r="AN845" s="9"/>
-      <c r="AO845" s="9"/>
-      <c r="AP845" s="9"/>
-      <c r="AQ845" s="9"/>
-      <c r="AR845" s="9"/>
-      <c r="AS845" s="9"/>
-      <c r="AT845" s="9"/>
-      <c r="AU845" s="9"/>
-      <c r="AV845" s="9"/>
-      <c r="AW845" s="9"/>
-      <c r="AX845" s="9"/>
-      <c r="AY845" s="9"/>
-      <c r="AZ845" s="9"/>
-      <c r="BA845" s="9"/>
-      <c r="BB845" s="9"/>
-      <c r="BC845" s="9"/>
-      <c r="BD845" s="9"/>
-      <c r="BE845" s="9"/>
-      <c r="BF845" s="9"/>
-      <c r="BG845" s="9"/>
-      <c r="BH845" s="9"/>
-      <c r="BI845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BJ845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BK845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BL845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BM845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BN845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BO845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BP845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BQ845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BR845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BS845" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="BT845" s="9"/>
-      <c r="BU845" s="9"/>
-      <c r="BV845" s="9"/>
-      <c r="BW845" s="9"/>
-      <c r="BX845" s="9"/>
-      <c r="BY845" s="9"/>
-      <c r="BZ845" s="9"/>
-      <c r="CA845" s="9"/>
-      <c r="CB845" s="9"/>
-      <c r="CC845" s="9"/>
-      <c r="CD845" s="9"/>
-      <c r="CE845" s="9"/>
-      <c r="CF845" s="9"/>
-      <c r="CG845" s="9"/>
-      <c r="CH845" s="9"/>
-      <c r="CI845" s="9"/>
-      <c r="CJ845" s="9"/>
-      <c r="CK845" s="9"/>
-      <c r="CL845" s="9"/>
-      <c r="CM845" s="9"/>
-      <c r="CN845" s="9"/>
-      <c r="CO845" s="9"/>
-      <c r="CP845" s="9"/>
-      <c r="CQ845" s="9"/>
-      <c r="CR845" s="9"/>
-      <c r="CS845" s="9"/>
-      <c r="CT845" s="9"/>
-      <c r="CU845" s="9"/>
-      <c r="CV845" s="9"/>
-      <c r="CW845" s="9"/>
-      <c r="CX845" s="9"/>
-      <c r="CY845" s="9"/>
-      <c r="CZ845" s="9"/>
-      <c r="DA845" s="9"/>
-      <c r="DB845" s="9"/>
-      <c r="DC845" s="9"/>
-      <c r="DD845" s="9"/>
-      <c r="DE845" s="9"/>
-      <c r="DF845" s="9"/>
-      <c r="DG845" s="9"/>
-      <c r="DH845" s="9"/>
-      <c r="DI845" s="9"/>
-      <c r="DJ845" s="9"/>
-      <c r="DK845" s="9"/>
-      <c r="DL845" s="9"/>
-      <c r="DM845" s="9"/>
-      <c r="DN845" s="9"/>
-      <c r="DO845" s="9"/>
-      <c r="DP845" s="9"/>
-      <c r="DQ845" s="9"/>
-      <c r="DR845" s="9"/>
-      <c r="DS845" s="9"/>
-      <c r="DT845" s="9"/>
-      <c r="DU845" s="9"/>
-      <c r="DV845" s="9"/>
-      <c r="DW845" s="9"/>
-      <c r="DX845" s="9"/>
-      <c r="DY845" s="9"/>
-      <c r="DZ845" s="9"/>
-      <c r="EA845" s="9"/>
-      <c r="EB845" s="9"/>
-      <c r="EC845" s="9"/>
-      <c r="ED845" s="9"/>
-      <c r="EE845" s="9"/>
-      <c r="EF845" s="9"/>
-      <c r="EG845" s="9"/>
-      <c r="EH845" s="9"/>
-      <c r="EI845" s="9"/>
-      <c r="EJ845" s="9"/>
-      <c r="EK845" s="9"/>
-      <c r="EL845" s="9"/>
-      <c r="EM845" s="9"/>
-      <c r="EN845" s="9"/>
-      <c r="EO845" s="9"/>
-      <c r="EP845" s="9"/>
-      <c r="EQ845" s="9"/>
-      <c r="ER845" s="9"/>
-      <c r="ES845" s="9"/>
-      <c r="ET845" s="9"/>
-      <c r="EU845" s="9"/>
-      <c r="EV845" s="9"/>
-      <c r="EW845" s="9"/>
-      <c r="EX845" s="9"/>
-      <c r="EY845" s="9"/>
-      <c r="EZ845" s="9"/>
-      <c r="FA845" s="9"/>
-      <c r="FB845" s="9"/>
-      <c r="FC845" s="9"/>
-      <c r="FD845" s="9"/>
-      <c r="FE845" s="9"/>
-      <c r="FF845" s="9"/>
-      <c r="FG845" s="9"/>
-      <c r="FH845" s="9"/>
-      <c r="FI845" s="9"/>
-      <c r="FJ845" s="9"/>
-      <c r="FK845" s="9"/>
-      <c r="FL845" s="9"/>
-      <c r="FM845" s="9"/>
-      <c r="FN845" s="9"/>
-      <c r="FO845" s="9"/>
-      <c r="FP845" s="9"/>
-      <c r="FQ845" s="9"/>
-      <c r="FR845" s="9"/>
-      <c r="FS845" s="9"/>
-      <c r="FT845" s="9"/>
-      <c r="FU845" s="9"/>
-      <c r="FV845" s="9"/>
-      <c r="FW845" s="9"/>
-      <c r="FX845" s="9"/>
-      <c r="FY845" s="9"/>
-      <c r="FZ845" s="9"/>
-      <c r="GA845" s="9"/>
-      <c r="GB845" s="9"/>
-      <c r="GC845" s="9"/>
-      <c r="GD845" s="9"/>
-      <c r="GE845" s="9"/>
-      <c r="GF845" s="9"/>
-      <c r="GG845" s="9"/>
-      <c r="GH845" s="9"/>
-      <c r="GI845" s="9"/>
-      <c r="GJ845" s="9"/>
-      <c r="GK845" s="9"/>
-      <c r="GL845" s="9"/>
-      <c r="GM845" s="9"/>
-      <c r="GN845" s="9"/>
-      <c r="GO845" s="9"/>
-      <c r="GP845" s="9"/>
-      <c r="GQ845" s="9"/>
-      <c r="GR845" s="9"/>
-      <c r="GS845" s="9"/>
-      <c r="GT845" s="9"/>
-      <c r="GU845" s="9"/>
-      <c r="GV845" s="9"/>
-      <c r="GW845" s="9"/>
-      <c r="GX845" s="9"/>
-      <c r="GY845" s="9"/>
-      <c r="GZ845" s="9"/>
-      <c r="HA845" s="9"/>
-      <c r="HB845" s="9"/>
-      <c r="HC845" s="9"/>
-      <c r="HD845" s="9"/>
-      <c r="HE845" s="9"/>
-      <c r="HF845" s="9"/>
-      <c r="HG845" s="9"/>
-      <c r="HH845" s="9"/>
-      <c r="HI845" s="9"/>
-      <c r="HJ845" s="9"/>
-      <c r="HK845" s="9"/>
-      <c r="HL845" s="9"/>
-      <c r="HM845" s="9"/>
-      <c r="HN845" s="9"/>
-      <c r="HO845" s="9"/>
-      <c r="HP845" s="9"/>
-      <c r="HQ845" s="9"/>
-      <c r="HR845" s="9"/>
-      <c r="HS845" s="9"/>
-      <c r="HT845" s="9"/>
-      <c r="HU845" s="9"/>
-      <c r="HV845" s="9"/>
-      <c r="HW845" s="9"/>
-      <c r="HX845" s="9"/>
-      <c r="HY845" s="9"/>
-      <c r="HZ845" s="9"/>
-      <c r="IA845" s="9"/>
-      <c r="IB845" s="9"/>
-      <c r="IC845" s="9"/>
-      <c r="ID845" s="9"/>
-      <c r="IE845" s="9"/>
-      <c r="IF845" s="9"/>
-      <c r="IG845" s="9"/>
-      <c r="IH845" s="9"/>
-      <c r="II845" s="9"/>
-      <c r="IJ845" s="9"/>
-      <c r="IK845" s="9"/>
-      <c r="IL845" s="9"/>
-      <c r="IM845" s="9"/>
-      <c r="IN845" s="9"/>
-      <c r="IO845" s="9"/>
-      <c r="IP845" s="9"/>
-      <c r="IQ845" s="9"/>
-      <c r="IR845" s="9"/>
-      <c r="IS845" s="9"/>
-      <c r="IT845" s="9"/>
-      <c r="IU845" s="9"/>
-      <c r="IV845" s="9"/>
-      <c r="IW845" s="9"/>
-      <c r="IX845" s="9"/>
-      <c r="IY845" s="9"/>
-      <c r="IZ845" s="9"/>
-      <c r="JA845" s="9"/>
-      <c r="JB845" s="9"/>
-      <c r="JC845" s="9"/>
-      <c r="JD845" s="9"/>
-      <c r="JE845" s="9"/>
-      <c r="JF845" s="9"/>
-      <c r="JG845" s="9"/>
-      <c r="JH845" s="9"/>
-      <c r="JI845" s="9"/>
-      <c r="JJ845" s="9"/>
-      <c r="JK845" s="9"/>
-      <c r="JL845" s="9"/>
-      <c r="JM845" s="9"/>
-      <c r="JN845" s="9"/>
-      <c r="JO845" s="9"/>
-      <c r="JP845" s="9"/>
-      <c r="JQ845" s="9"/>
-      <c r="JR845" s="9"/>
-      <c r="JS845" s="9"/>
-      <c r="JT845" s="9"/>
-      <c r="JU845" s="9"/>
-      <c r="JV845" s="9"/>
-      <c r="JW845" s="9"/>
-      <c r="JX845" s="9"/>
-      <c r="JY845" s="9"/>
-      <c r="JZ845" s="9"/>
-      <c r="KA845" s="9"/>
-      <c r="KB845" s="9"/>
-      <c r="KC845" s="9"/>
-      <c r="KD845" s="9"/>
-      <c r="KE845" s="9"/>
-      <c r="KF845" s="9"/>
-      <c r="KG845" s="9"/>
-      <c r="KH845" s="9"/>
-      <c r="KI845" s="9"/>
-      <c r="KJ845" s="9"/>
-      <c r="KK845" s="9"/>
-      <c r="KL845" s="9"/>
-      <c r="KM845" s="9"/>
-      <c r="KN845" s="9"/>
-      <c r="KO845" s="9"/>
-      <c r="KP845" s="9"/>
-      <c r="KQ845" s="9"/>
-      <c r="KR845" s="9"/>
-      <c r="KS845" s="9"/>
-      <c r="KT845" s="9"/>
-      <c r="KU845" s="9"/>
-      <c r="KV845" s="9"/>
-      <c r="KW845" s="9"/>
-      <c r="KX845" s="9"/>
-      <c r="KY845" s="9"/>
-      <c r="KZ845" s="9"/>
-      <c r="LA845" s="9"/>
-      <c r="LB845" s="9"/>
-      <c r="LC845" s="9"/>
-      <c r="LD845" s="9"/>
-      <c r="LE845" s="9"/>
-      <c r="LF845" s="9"/>
-      <c r="LG845" s="9"/>
-      <c r="LH845" s="9"/>
-      <c r="LI845" s="9"/>
-      <c r="LJ845" s="9"/>
-      <c r="LK845" s="9"/>
-      <c r="LL845" s="9"/>
-      <c r="LM845" s="9"/>
-      <c r="LN845" s="9"/>
-      <c r="LO845" s="9"/>
-      <c r="LP845" s="9"/>
-      <c r="LQ845" s="9"/>
-      <c r="LR845" s="9"/>
-      <c r="LS845" s="9"/>
-      <c r="LT845" s="9"/>
-      <c r="LU845" s="9"/>
-      <c r="LV845" s="9"/>
-      <c r="LW845" s="9"/>
-      <c r="LX845" s="9"/>
-      <c r="LY845" s="9"/>
-      <c r="LZ845" s="9"/>
-      <c r="MA845" s="9"/>
-      <c r="MB845" s="9"/>
-      <c r="MC845" s="9"/>
-      <c r="MD845" s="9"/>
-      <c r="ME845" s="9"/>
-      <c r="MF845" s="9"/>
-      <c r="MG845" s="9"/>
-      <c r="MH845" s="9"/>
-      <c r="MI845" s="9"/>
-      <c r="MJ845" s="9"/>
-      <c r="MK845" s="9"/>
-      <c r="ML845" s="9"/>
-      <c r="MM845" s="9"/>
-      <c r="MN845" s="9"/>
-      <c r="MO845" s="9"/>
-      <c r="MP845" s="9"/>
-      <c r="MQ845" s="9"/>
-      <c r="MR845" s="9"/>
-      <c r="MS845" s="9"/>
-      <c r="MT845" s="9"/>
-      <c r="MU845" s="9"/>
-      <c r="MV845" s="9"/>
-      <c r="MW845" s="9"/>
-      <c r="MX845" s="9"/>
-      <c r="MY845" s="9"/>
-      <c r="MZ845" s="9"/>
-      <c r="NA845" s="9"/>
-      <c r="NB845" s="9"/>
-      <c r="NC845" s="9"/>
-      <c r="ND845" s="9"/>
-      <c r="NE845" s="9"/>
-      <c r="NF845" s="9"/>
-      <c r="NG845" s="9"/>
-      <c r="NH845" s="9"/>
-      <c r="NI845" s="9"/>
-      <c r="NJ845" s="9"/>
-      <c r="NK845" s="9"/>
-      <c r="NL845" s="9"/>
-      <c r="NM845" s="9"/>
-      <c r="NN845" s="9"/>
-      <c r="NO845" s="9"/>
-      <c r="NP845" s="9"/>
-      <c r="NQ845" s="9"/>
-      <c r="NR845" s="9"/>
-      <c r="NS845" s="9"/>
-      <c r="NT845" s="9"/>
-      <c r="NU845" s="9"/>
-      <c r="NV845" s="9"/>
-      <c r="NW845" s="9"/>
-      <c r="NX845" s="9"/>
-      <c r="NY845" s="9"/>
-      <c r="NZ845" s="9"/>
-      <c r="OA845" s="9"/>
-      <c r="OB845" s="9"/>
-      <c r="OC845" s="9"/>
-      <c r="OD845" s="9"/>
-      <c r="OE845" s="9"/>
-      <c r="OF845" s="9"/>
-      <c r="OG845" s="9"/>
-      <c r="OH845" s="9"/>
-      <c r="OI845" s="9"/>
-      <c r="OJ845" s="9"/>
-      <c r="OK845" s="9"/>
-      <c r="OL845" s="9"/>
-      <c r="OM845" s="9"/>
-      <c r="ON845" s="9"/>
-      <c r="OO845" s="9"/>
-      <c r="OP845" s="9"/>
-      <c r="OQ845" s="9"/>
-      <c r="OR845" s="9"/>
-      <c r="OS845" s="9"/>
-      <c r="OT845" s="9"/>
-      <c r="OU845" s="9"/>
-      <c r="OV845" s="9"/>
-      <c r="OW845" s="9"/>
-      <c r="OX845" s="9"/>
-      <c r="OY845" s="9"/>
-      <c r="OZ845" s="9"/>
-      <c r="PA845" s="9"/>
-      <c r="PB845" s="9"/>
-      <c r="PC845" s="9"/>
-      <c r="PD845" s="9"/>
-      <c r="PE845" s="9"/>
-      <c r="PF845" s="9"/>
-      <c r="PG845" s="9"/>
-      <c r="PH845" s="9"/>
-      <c r="PI845" s="9"/>
-      <c r="PJ845" s="9"/>
-      <c r="PK845" s="9"/>
-      <c r="PL845" s="9"/>
-      <c r="PM845" s="9"/>
-      <c r="PN845" s="9"/>
-      <c r="PO845" s="9"/>
-      <c r="PP845" s="9"/>
-      <c r="PQ845" s="9"/>
-      <c r="PR845" s="9"/>
-      <c r="PS845" s="9"/>
-      <c r="PT845" s="9"/>
-      <c r="PU845" s="9"/>
-      <c r="PV845" s="9"/>
-      <c r="PW845" s="9"/>
-      <c r="PX845" s="9"/>
-      <c r="PY845" s="9"/>
-      <c r="PZ845" s="9"/>
-      <c r="QA845" s="9"/>
-      <c r="QB845" s="9"/>
-      <c r="QC845" s="9"/>
-      <c r="QD845" s="9"/>
-      <c r="QE845" s="9"/>
-      <c r="QF845" s="9"/>
-      <c r="QG845" s="9"/>
-      <c r="QH845" s="9"/>
-      <c r="QI845" s="9"/>
-      <c r="QJ845" s="9"/>
-      <c r="QK845" s="9"/>
-      <c r="QL845" s="9"/>
-      <c r="QM845" s="9"/>
-      <c r="QN845" s="9"/>
-      <c r="QO845" s="9"/>
-      <c r="QP845" s="9"/>
-      <c r="QQ845" s="9"/>
-      <c r="QR845" s="9"/>
-      <c r="QS845" s="9"/>
-      <c r="QT845" s="9"/>
-      <c r="QU845" s="9"/>
-      <c r="QV845" s="9"/>
-      <c r="QW845" s="9"/>
-      <c r="QX845" s="9"/>
-      <c r="QY845" s="9"/>
-      <c r="QZ845" s="9"/>
-      <c r="RA845" s="9"/>
-      <c r="RB845" s="9"/>
-      <c r="RC845" s="9"/>
-      <c r="RD845" s="9"/>
-      <c r="RE845" s="9"/>
-      <c r="RF845" s="9"/>
-      <c r="RG845" s="9"/>
-      <c r="RH845" s="9"/>
-      <c r="RI845" s="9"/>
-      <c r="RJ845" s="9"/>
-      <c r="RK845" s="9"/>
-      <c r="RL845" s="9"/>
-      <c r="RM845" s="9"/>
-      <c r="RN845" s="9"/>
-      <c r="RO845" s="9"/>
-      <c r="RP845" s="9"/>
-      <c r="RQ845" s="9"/>
-      <c r="RR845" s="9"/>
-      <c r="RS845" s="9"/>
-      <c r="RT845" s="9"/>
-      <c r="RU845" s="9"/>
-      <c r="RV845" s="9"/>
-      <c r="RW845" s="9"/>
-      <c r="RX845" s="9"/>
-      <c r="RY845" s="9"/>
-      <c r="RZ845" s="9"/>
-      <c r="SA845" s="9"/>
-      <c r="SB845" s="9"/>
-      <c r="SC845" s="9"/>
-      <c r="SD845" s="9"/>
-      <c r="SE845" s="9"/>
-      <c r="SF845" s="9"/>
-      <c r="SG845" s="9"/>
-      <c r="SH845" s="9"/>
-      <c r="SI845" s="9"/>
-      <c r="SJ845" s="9"/>
-      <c r="SK845" s="9"/>
-      <c r="SL845" s="9"/>
-      <c r="SM845" s="9"/>
-      <c r="SN845" s="9"/>
-      <c r="SO845" s="9"/>
-      <c r="SP845" s="9"/>
-      <c r="SQ845" s="9"/>
-      <c r="SR845" s="9"/>
-      <c r="SS845" s="9"/>
-      <c r="ST845" s="9"/>
-      <c r="SU845" s="9"/>
-      <c r="SV845" s="9"/>
-      <c r="SW845" s="9"/>
-      <c r="SX845" s="9"/>
-      <c r="SY845" s="9"/>
-      <c r="SZ845" s="9"/>
-      <c r="TA845" s="9"/>
-      <c r="TB845" s="9"/>
-      <c r="TC845" s="9"/>
-      <c r="TD845" s="9"/>
-      <c r="TE845" s="9"/>
-      <c r="TF845" s="9"/>
-      <c r="TG845" s="9"/>
-      <c r="TH845" s="9"/>
-      <c r="TI845" s="9"/>
-      <c r="TJ845" s="9"/>
-      <c r="TK845" s="9"/>
-      <c r="TL845" s="9"/>
-      <c r="TM845" s="9"/>
-      <c r="TN845" s="9"/>
-      <c r="TO845" s="9"/>
-      <c r="TP845" s="9"/>
-      <c r="TQ845" s="9"/>
-      <c r="TR845" s="9"/>
-      <c r="TS845" s="9"/>
-      <c r="TT845" s="9"/>
-      <c r="TU845" s="9"/>
-      <c r="TV845" s="9"/>
-      <c r="TW845" s="9"/>
-      <c r="TX845" s="9"/>
-      <c r="TY845" s="9"/>
-      <c r="TZ845" s="9"/>
-      <c r="UA845" s="9"/>
-      <c r="UB845" s="9"/>
-      <c r="UC845" s="9"/>
-      <c r="UD845" s="9"/>
-      <c r="UE845" s="9"/>
-      <c r="UF845" s="9"/>
-      <c r="UG845" s="9"/>
-      <c r="UH845" s="9"/>
-      <c r="UI845" s="9"/>
-      <c r="UJ845" s="9"/>
-      <c r="UK845" s="9"/>
-      <c r="UL845" s="9"/>
-      <c r="UM845" s="9"/>
-      <c r="UN845" s="9"/>
-      <c r="UO845" s="9"/>
-      <c r="UP845" s="9"/>
-      <c r="UQ845" s="9"/>
-      <c r="UR845" s="9"/>
-      <c r="US845" s="9"/>
-      <c r="UT845" s="9"/>
-      <c r="UU845" s="9"/>
-      <c r="UV845" s="9"/>
-      <c r="UW845" s="9"/>
-      <c r="UX845" s="9"/>
-      <c r="UY845" s="9"/>
-      <c r="UZ845" s="9"/>
-      <c r="VA845" s="9"/>
-      <c r="VB845" s="9"/>
-      <c r="VC845" s="9"/>
-      <c r="VD845" s="9"/>
-      <c r="VE845" s="9"/>
-      <c r="VF845" s="9"/>
-      <c r="VG845" s="9"/>
-      <c r="VH845" s="9"/>
-      <c r="VI845" s="9"/>
-      <c r="VJ845" s="9"/>
-      <c r="VK845" s="9"/>
-      <c r="VL845" s="9"/>
-      <c r="VM845" s="9"/>
-      <c r="VN845" s="9"/>
-      <c r="VO845" s="9"/>
-      <c r="VP845" s="9"/>
-      <c r="VQ845" s="9"/>
-      <c r="VR845" s="9"/>
-      <c r="VS845" s="9"/>
-      <c r="VT845" s="9"/>
-      <c r="VU845" s="9"/>
-      <c r="VV845" s="9"/>
-      <c r="VW845" s="9"/>
-      <c r="VX845" s="9"/>
-      <c r="VY845" s="9"/>
-      <c r="VZ845" s="9"/>
-      <c r="WA845" s="9"/>
-      <c r="WB845" s="9"/>
-      <c r="WC845" s="9"/>
-      <c r="WD845" s="9"/>
-      <c r="WE845" s="9"/>
-      <c r="WF845" s="9"/>
-      <c r="WG845" s="9"/>
-      <c r="WH845" s="9"/>
-      <c r="WI845" s="9"/>
-      <c r="WJ845" s="9"/>
-      <c r="WK845" s="9"/>
-      <c r="WL845" s="9"/>
-      <c r="WM845" s="9"/>
-      <c r="WN845" s="9"/>
-      <c r="WO845" s="9"/>
-      <c r="WP845" s="9"/>
-      <c r="WQ845" s="9"/>
-      <c r="WR845" s="9"/>
-      <c r="WS845" s="9"/>
-      <c r="WT845" s="9"/>
-      <c r="WU845" s="9"/>
-      <c r="WV845" s="9"/>
-      <c r="WW845" s="9"/>
-      <c r="WX845" s="9"/>
-      <c r="WY845" s="9"/>
-      <c r="WZ845" s="9"/>
-      <c r="XA845" s="9"/>
-      <c r="XB845" s="9"/>
-      <c r="XC845" s="9"/>
-      <c r="XD845" s="9"/>
-      <c r="XE845" s="9"/>
-      <c r="XF845" s="9"/>
-      <c r="XG845" s="9"/>
-      <c r="XH845" s="9"/>
-      <c r="XI845" s="9"/>
-      <c r="XJ845" s="9"/>
-      <c r="XK845" s="9"/>
-      <c r="XL845" s="9"/>
-      <c r="XM845" s="9"/>
-      <c r="XN845" s="9"/>
-      <c r="XO845" s="9"/>
-      <c r="XP845" s="9"/>
-      <c r="XQ845" s="9"/>
-      <c r="XR845" s="9"/>
-      <c r="XS845" s="9"/>
-      <c r="XT845" s="9"/>
-      <c r="XU845" s="9"/>
-      <c r="XV845" s="9"/>
-      <c r="XW845" s="9"/>
-      <c r="XX845" s="9"/>
-      <c r="XY845" s="9"/>
-      <c r="XZ845" s="9"/>
-      <c r="YA845" s="9"/>
-      <c r="YB845" s="9"/>
-      <c r="YC845" s="9"/>
-      <c r="YD845" s="9"/>
-      <c r="YE845" s="9"/>
-      <c r="YF845" s="9"/>
-      <c r="YG845" s="9"/>
-      <c r="YH845" s="9"/>
-      <c r="YI845" s="9"/>
-      <c r="YJ845" s="9"/>
-      <c r="YK845" s="9"/>
-      <c r="YL845" s="9"/>
-      <c r="YM845" s="9"/>
-      <c r="YN845" s="9"/>
-      <c r="YO845" s="9"/>
-      <c r="YP845" s="9"/>
-      <c r="YQ845" s="9"/>
-      <c r="YR845" s="9"/>
-      <c r="YS845" s="9"/>
-      <c r="YT845" s="9"/>
-      <c r="YU845" s="9"/>
-      <c r="YV845" s="9"/>
-      <c r="YW845" s="9"/>
-      <c r="YX845" s="9"/>
-      <c r="YY845" s="9"/>
-      <c r="YZ845" s="9"/>
-      <c r="ZA845" s="9"/>
-      <c r="ZB845" s="9"/>
-      <c r="ZC845" s="9"/>
-      <c r="ZD845" s="9"/>
-      <c r="ZE845" s="9"/>
-      <c r="ZF845" s="9"/>
-      <c r="ZG845" s="9"/>
-      <c r="ZH845" s="9"/>
-      <c r="ZI845" s="9"/>
-      <c r="ZJ845" s="9"/>
-      <c r="ZK845" s="9"/>
-      <c r="ZL845" s="9"/>
-      <c r="ZM845" s="9"/>
-      <c r="ZN845" s="9"/>
-      <c r="ZO845" s="9"/>
-      <c r="ZP845" s="9"/>
-      <c r="ZQ845" s="9"/>
-      <c r="ZR845" s="9"/>
-      <c r="ZS845" s="9"/>
-      <c r="ZT845" s="9"/>
-      <c r="ZU845" s="9"/>
-      <c r="ZV845" s="9"/>
-      <c r="ZW845" s="9"/>
-      <c r="ZX845" s="9"/>
-      <c r="ZY845" s="9"/>
-      <c r="ZZ845" s="9"/>
-      <c r="AAA845" s="9"/>
-      <c r="AAB845" s="9"/>
-      <c r="AAC845" s="9"/>
-      <c r="AAD845" s="9"/>
-      <c r="AAE845" s="9"/>
-      <c r="AAF845" s="9"/>
-      <c r="AAG845" s="9"/>
-      <c r="AAH845" s="9"/>
-      <c r="AAI845" s="9"/>
-      <c r="AAJ845" s="9"/>
-      <c r="AAK845" s="9"/>
-      <c r="AAL845" s="9"/>
-      <c r="AAM845" s="9"/>
-      <c r="AAN845" s="9"/>
-      <c r="AAO845" s="9"/>
-      <c r="AAP845" s="9"/>
-      <c r="AAQ845" s="9"/>
-      <c r="AAR845" s="9"/>
-      <c r="AAS845" s="9"/>
-      <c r="AAT845" s="9"/>
-      <c r="AAU845" s="9"/>
-      <c r="AAV845" s="9"/>
-      <c r="AAW845" s="9"/>
-      <c r="AAX845" s="9"/>
-      <c r="AAY845" s="9"/>
-      <c r="AAZ845" s="9"/>
-      <c r="ABA845" s="9"/>
-      <c r="ABB845" s="9"/>
-      <c r="ABC845" s="9"/>
-      <c r="ABD845" s="9"/>
-      <c r="ABE845" s="9"/>
-      <c r="ABF845" s="9"/>
-      <c r="ABG845" s="9"/>
-      <c r="ABH845" s="9"/>
-      <c r="ABI845" s="9"/>
-      <c r="ABJ845" s="9"/>
-      <c r="ABK845" s="9"/>
-      <c r="ABL845" s="9"/>
-      <c r="ABM845" s="9"/>
-      <c r="ABN845" s="9"/>
-      <c r="ABO845" s="9"/>
-      <c r="ABP845" s="9"/>
-      <c r="ABQ845" s="9"/>
-      <c r="ABR845" s="9"/>
-      <c r="ABS845" s="9"/>
-      <c r="ABT845" s="9"/>
-      <c r="ABU845" s="9"/>
-      <c r="ABV845" s="9"/>
-      <c r="ABW845" s="9"/>
-      <c r="ABX845" s="9"/>
-      <c r="ABY845" s="9"/>
-      <c r="ABZ845" s="9"/>
-      <c r="ACA845" s="9"/>
-      <c r="ACB845" s="9"/>
-      <c r="ACC845" s="9"/>
-      <c r="ACD845" s="9"/>
-      <c r="ACE845" s="9"/>
-      <c r="ACF845" s="9"/>
-      <c r="ACG845" s="9"/>
-      <c r="ACH845" s="9"/>
-      <c r="ACI845" s="9"/>
-      <c r="ACJ845" s="9"/>
-      <c r="ACK845" s="9"/>
-      <c r="ACL845" s="9"/>
-      <c r="ACM845" s="9"/>
-      <c r="ACN845" s="9"/>
-      <c r="ACO845" s="9"/>
-      <c r="ACP845" s="9"/>
-      <c r="ACQ845" s="9"/>
-      <c r="ACR845" s="9"/>
-      <c r="ACS845" s="9"/>
-      <c r="ACT845" s="9"/>
-      <c r="ACU845" s="9"/>
-      <c r="ACV845" s="9"/>
-      <c r="ACW845" s="9"/>
-      <c r="ACX845" s="9"/>
-      <c r="ACY845" s="9"/>
-      <c r="ACZ845" s="9"/>
-      <c r="ADA845" s="9"/>
-      <c r="ADB845" s="9"/>
-      <c r="ADC845" s="9"/>
-      <c r="ADD845" s="9"/>
-      <c r="ADE845" s="9"/>
-      <c r="ADF845" s="9"/>
-      <c r="ADG845" s="9"/>
-      <c r="ADH845" s="9"/>
-      <c r="ADI845" s="9"/>
-      <c r="ADJ845" s="9"/>
-      <c r="ADK845" s="9"/>
-      <c r="ADL845" s="9"/>
-      <c r="ADM845" s="9"/>
-      <c r="ADN845" s="9"/>
-      <c r="ADO845" s="9"/>
-      <c r="ADP845" s="9"/>
-      <c r="ADQ845" s="9"/>
-      <c r="ADR845" s="9"/>
-      <c r="ADS845" s="9"/>
-      <c r="ADT845" s="9"/>
-      <c r="ADU845" s="9"/>
-      <c r="ADV845" s="9"/>
-      <c r="ADW845" s="9"/>
-      <c r="ADX845" s="9"/>
-      <c r="ADY845" s="9"/>
-      <c r="ADZ845" s="9"/>
-      <c r="AEA845" s="9"/>
-      <c r="AEB845" s="9"/>
-      <c r="AEC845" s="9"/>
-      <c r="AED845" s="9"/>
-      <c r="AEE845" s="9"/>
-      <c r="AEF845" s="9"/>
-      <c r="AEG845" s="9"/>
-      <c r="AEH845" s="9"/>
-      <c r="AEI845" s="9"/>
-      <c r="AEJ845" s="9"/>
-      <c r="AEK845" s="9"/>
-      <c r="AEL845" s="9"/>
-      <c r="AEM845" s="9"/>
-      <c r="AEN845" s="9"/>
-      <c r="AEO845" s="9"/>
-      <c r="AEP845" s="9"/>
-      <c r="AEQ845" s="9"/>
-      <c r="AER845" s="9"/>
-      <c r="AES845" s="9"/>
-      <c r="AET845" s="9"/>
-      <c r="AEU845" s="9"/>
-      <c r="AEV845" s="9"/>
-      <c r="AEW845" s="9"/>
-      <c r="AEX845" s="9"/>
-      <c r="AEY845" s="9"/>
-      <c r="AEZ845" s="9"/>
-      <c r="AFA845" s="9"/>
-      <c r="AFB845" s="9"/>
-      <c r="AFC845" s="9"/>
-      <c r="AFD845" s="9"/>
-      <c r="AFE845" s="9"/>
-      <c r="AFF845" s="9"/>
-      <c r="AFG845" s="9"/>
-      <c r="AFH845" s="9"/>
-      <c r="AFI845" s="9"/>
-      <c r="AFJ845" s="9"/>
-      <c r="AFK845" s="9"/>
-      <c r="AFL845" s="9"/>
-      <c r="AFM845" s="9"/>
-      <c r="AFN845" s="9"/>
-      <c r="AFO845" s="9"/>
-      <c r="AFP845" s="9"/>
-      <c r="AFQ845" s="9"/>
-      <c r="AFR845" s="9"/>
-      <c r="AFS845" s="9"/>
-      <c r="AFT845" s="9"/>
-      <c r="AFU845" s="9"/>
-      <c r="AFV845" s="9"/>
-      <c r="AFW845" s="9"/>
-      <c r="AFX845" s="9"/>
-      <c r="AFY845" s="9"/>
-      <c r="AFZ845" s="9"/>
-      <c r="AGA845" s="9"/>
-      <c r="AGB845" s="9"/>
-      <c r="AGC845" s="9"/>
-      <c r="AGD845" s="9"/>
-      <c r="AGE845" s="9"/>
-      <c r="AGF845" s="9"/>
-      <c r="AGG845" s="9"/>
-      <c r="AGH845" s="9"/>
-      <c r="AGI845" s="9"/>
-      <c r="AGJ845" s="9"/>
-      <c r="AGK845" s="9"/>
-      <c r="AGL845" s="9"/>
-      <c r="AGM845" s="9"/>
-      <c r="AGN845" s="9"/>
-      <c r="AGO845" s="9"/>
-      <c r="AGP845" s="9"/>
-      <c r="AGQ845" s="9"/>
-      <c r="AGR845" s="9"/>
-      <c r="AGS845" s="9"/>
-      <c r="AGT845" s="9"/>
-      <c r="AGU845" s="9"/>
-      <c r="AGV845" s="9"/>
-      <c r="AGW845" s="9"/>
-      <c r="AGX845" s="9"/>
-      <c r="AGY845" s="9"/>
-      <c r="AGZ845" s="9"/>
-      <c r="AHA845" s="9"/>
-      <c r="AHB845" s="9"/>
-      <c r="AHC845" s="9"/>
-      <c r="AHD845" s="9"/>
-      <c r="AHE845" s="9"/>
-      <c r="AHF845" s="9"/>
-      <c r="AHG845" s="9"/>
-      <c r="AHH845" s="9"/>
-      <c r="AHI845" s="9"/>
-      <c r="AHJ845" s="9"/>
-      <c r="AHK845" s="9"/>
-      <c r="AHL845" s="9"/>
-      <c r="AHM845" s="9"/>
-      <c r="AHN845" s="9"/>
-      <c r="AHO845" s="9"/>
-      <c r="AHP845" s="9"/>
-      <c r="AHQ845" s="9"/>
-      <c r="AHR845" s="9"/>
-      <c r="AHS845" s="9"/>
-      <c r="AHT845" s="9"/>
-      <c r="AHU845" s="9"/>
-      <c r="AHV845" s="9"/>
-      <c r="AHW845" s="9"/>
-      <c r="AHX845" s="9"/>
-      <c r="AHY845" s="9"/>
-      <c r="AHZ845" s="9"/>
-      <c r="AIA845" s="9"/>
-      <c r="AIB845" s="9"/>
-      <c r="AIC845" s="9"/>
-      <c r="AID845" s="9"/>
-      <c r="AIE845" s="9"/>
-      <c r="AIF845" s="9"/>
-      <c r="AIG845" s="9"/>
-      <c r="AIH845" s="9"/>
-      <c r="AII845" s="9"/>
-      <c r="AIJ845" s="9"/>
-      <c r="AIK845" s="9"/>
-      <c r="AIL845" s="9"/>
-      <c r="AIM845" s="9"/>
-      <c r="AIN845" s="9"/>
-      <c r="AIO845" s="9"/>
-      <c r="AIP845" s="9"/>
-      <c r="AIQ845" s="9"/>
-      <c r="AIR845" s="9"/>
-      <c r="AIS845" s="9"/>
-      <c r="AIT845" s="9"/>
-      <c r="AIU845" s="9"/>
-      <c r="AIV845" s="9"/>
-      <c r="AIW845" s="9"/>
-      <c r="AIX845" s="9"/>
-      <c r="AIY845" s="9"/>
-      <c r="AIZ845" s="9"/>
-      <c r="AJA845" s="9"/>
-      <c r="AJB845" s="9"/>
-      <c r="AJC845" s="9"/>
-      <c r="AJD845" s="9"/>
-      <c r="AJE845" s="9"/>
-      <c r="AJF845" s="9"/>
-      <c r="AJG845" s="9"/>
-      <c r="AJH845" s="9"/>
-      <c r="AJI845" s="9"/>
-      <c r="AJJ845" s="9"/>
-      <c r="AJK845" s="9"/>
-      <c r="AJL845" s="9"/>
-      <c r="AJM845" s="9"/>
-      <c r="AJN845" s="9"/>
-      <c r="AJO845" s="9"/>
-      <c r="AJP845" s="9"/>
-      <c r="AJQ845" s="9"/>
-      <c r="AJR845" s="9"/>
-      <c r="AJS845" s="9"/>
-      <c r="AJT845" s="9"/>
-      <c r="AJU845" s="9"/>
-      <c r="AJV845" s="9"/>
-      <c r="AJW845" s="9"/>
-      <c r="AJX845" s="9"/>
-      <c r="AJY845" s="9"/>
-      <c r="AJZ845" s="9"/>
-      <c r="AKA845" s="9"/>
-      <c r="AKB845" s="9"/>
-      <c r="AKC845" s="9"/>
-      <c r="AKD845" s="9"/>
-      <c r="AKE845" s="9"/>
-      <c r="AKF845" s="9"/>
-      <c r="AKG845" s="9"/>
-      <c r="AKH845" s="9"/>
-      <c r="AKI845" s="9"/>
-      <c r="AKJ845" s="9"/>
-      <c r="AKK845" s="9"/>
-      <c r="AKL845" s="9"/>
-      <c r="AKM845" s="9"/>
-      <c r="AKN845" s="9"/>
-      <c r="AKO845" s="9"/>
-      <c r="AKP845" s="9"/>
-      <c r="AKQ845" s="9"/>
-      <c r="AKR845" s="9"/>
-      <c r="AKS845" s="9"/>
-      <c r="AKT845" s="9"/>
-      <c r="AKU845" s="9"/>
-      <c r="AKV845" s="9"/>
-      <c r="AKW845" s="9"/>
-      <c r="AKX845" s="9"/>
-      <c r="AKY845" s="9"/>
-      <c r="AKZ845" s="9"/>
-      <c r="ALA845" s="9"/>
-      <c r="ALB845" s="9"/>
-      <c r="ALC845" s="9"/>
-      <c r="ALD845" s="9"/>
-      <c r="ALE845" s="9"/>
-      <c r="ALF845" s="9"/>
-      <c r="ALG845" s="9"/>
-      <c r="ALH845" s="9"/>
-      <c r="ALI845" s="9"/>
-      <c r="ALJ845" s="9"/>
-      <c r="ALK845" s="9"/>
-      <c r="ALL845" s="9"/>
-      <c r="ALM845" s="9"/>
-      <c r="ALN845" s="9"/>
-      <c r="ALO845" s="9"/>
-      <c r="ALP845" s="9"/>
-      <c r="ALQ845" s="9"/>
-      <c r="ALR845" s="9"/>
-      <c r="ALS845" s="9"/>
-      <c r="ALT845" s="9"/>
-      <c r="ALU845" s="9"/>
-      <c r="ALV845" s="9"/>
-      <c r="ALW845" s="9"/>
-      <c r="ALX845" s="9"/>
-      <c r="ALY845" s="9"/>
-      <c r="ALZ845" s="9"/>
-      <c r="AMA845" s="9"/>
-      <c r="AMB845" s="9"/>
-      <c r="AMC845" s="9"/>
-      <c r="AMD845" s="9"/>
-      <c r="AME845" s="9"/>
-      <c r="AMF845" s="9"/>
-      <c r="AMG845" s="9"/>
-      <c r="AMH845" s="9"/>
-      <c r="AMI845" s="9"/>
-      <c r="AMJ845" s="9"/>
-      <c r="AMK845" s="9"/>
-    </row>
-    <row r="846" spans="1:1025" x14ac:dyDescent="0.2">
-      <c r="A846" s="1" t="s">
-        <v>986</v>
-      </c>
-      <c r="AI846" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ846" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B846" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C846" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D846" s="9"/>
+      <c r="E846" s="9"/>
+      <c r="F846" s="9"/>
+      <c r="G846" s="9"/>
+      <c r="H846" s="9"/>
+      <c r="I846" s="9"/>
+      <c r="J846" s="9"/>
+      <c r="K846" s="9"/>
+      <c r="L846" s="9"/>
+      <c r="M846" s="9"/>
+      <c r="N846" s="9"/>
+      <c r="O846" s="9"/>
+      <c r="P846" s="9"/>
+      <c r="Q846" s="9"/>
+      <c r="R846" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="S846" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="T846" s="9"/>
+      <c r="U846" s="9"/>
+      <c r="V846" s="9"/>
+      <c r="W846" s="9"/>
+      <c r="X846" s="9"/>
+      <c r="Y846" s="9"/>
+      <c r="Z846" s="9"/>
+      <c r="AA846" s="9"/>
+      <c r="AB846" s="9"/>
+      <c r="AC846" s="9"/>
+      <c r="AD846" s="9"/>
+      <c r="AE846" s="9"/>
+      <c r="AF846" s="9"/>
+      <c r="AG846" s="9"/>
+      <c r="AH846" s="9"/>
+      <c r="AI846" s="9"/>
+      <c r="AJ846" s="9"/>
+      <c r="AK846" s="9"/>
+      <c r="AL846" s="9"/>
+      <c r="AM846" s="9"/>
+      <c r="AN846" s="9"/>
+      <c r="AO846" s="9"/>
+      <c r="AP846" s="9"/>
+      <c r="AQ846" s="9"/>
+      <c r="AR846" s="9"/>
+      <c r="AS846" s="9"/>
+      <c r="AT846" s="9"/>
+      <c r="AU846" s="9"/>
+      <c r="AV846" s="9"/>
+      <c r="AW846" s="9"/>
+      <c r="AX846" s="9"/>
+      <c r="AY846" s="9"/>
+      <c r="AZ846" s="9"/>
+      <c r="BA846" s="9"/>
+      <c r="BB846" s="9"/>
+      <c r="BC846" s="9"/>
+      <c r="BD846" s="9"/>
+      <c r="BE846" s="9"/>
+      <c r="BF846" s="9"/>
+      <c r="BG846" s="9"/>
+      <c r="BH846" s="9"/>
+      <c r="BT846" s="9"/>
+      <c r="BU846" s="9"/>
+      <c r="BV846" s="9"/>
+      <c r="BW846" s="9"/>
+      <c r="BX846" s="9"/>
+      <c r="BY846" s="9"/>
+      <c r="BZ846" s="9"/>
+      <c r="CA846" s="9"/>
+      <c r="CB846" s="9"/>
+      <c r="CC846" s="9"/>
+      <c r="CD846" s="9"/>
+      <c r="CE846" s="9"/>
+      <c r="CF846" s="9"/>
+      <c r="CG846" s="9"/>
+      <c r="CH846" s="9"/>
+      <c r="CI846" s="9"/>
+      <c r="CJ846" s="9"/>
+      <c r="CK846" s="9"/>
+      <c r="CL846" s="9"/>
+      <c r="CM846" s="9"/>
+      <c r="CN846" s="9"/>
+      <c r="CO846" s="9"/>
+      <c r="CP846" s="9"/>
+      <c r="CQ846" s="9"/>
+      <c r="CR846" s="9"/>
+      <c r="CS846" s="9"/>
+      <c r="CT846" s="9"/>
+      <c r="CU846" s="9"/>
+      <c r="CV846" s="9"/>
+      <c r="CW846" s="9"/>
+      <c r="CX846" s="9"/>
+      <c r="CY846" s="9"/>
+      <c r="CZ846" s="9"/>
+      <c r="DA846" s="9"/>
+      <c r="DB846" s="9"/>
+      <c r="DC846" s="9"/>
+      <c r="DD846" s="9"/>
+      <c r="DE846" s="9"/>
+      <c r="DF846" s="9"/>
+      <c r="DG846" s="9"/>
+      <c r="DH846" s="9"/>
+      <c r="DI846" s="9"/>
+      <c r="DJ846" s="9"/>
+      <c r="DK846" s="9"/>
+      <c r="DL846" s="9"/>
+      <c r="DM846" s="9"/>
+      <c r="DN846" s="9"/>
+      <c r="DO846" s="9"/>
+      <c r="DP846" s="9"/>
+      <c r="DQ846" s="9"/>
+      <c r="DR846" s="9"/>
+      <c r="DS846" s="9"/>
+      <c r="DT846" s="9"/>
+      <c r="DU846" s="9"/>
+      <c r="DV846" s="9"/>
+      <c r="DW846" s="9"/>
+      <c r="DX846" s="9"/>
+      <c r="DY846" s="9"/>
+      <c r="DZ846" s="9"/>
+      <c r="EA846" s="9"/>
+      <c r="EB846" s="9"/>
+      <c r="EC846" s="9"/>
+      <c r="ED846" s="9"/>
+      <c r="EE846" s="9"/>
+      <c r="EF846" s="9"/>
+      <c r="EG846" s="9"/>
+      <c r="EH846" s="9"/>
+      <c r="EI846" s="9"/>
+      <c r="EJ846" s="9"/>
+      <c r="EK846" s="9"/>
+      <c r="EL846" s="9"/>
+      <c r="EM846" s="9"/>
+      <c r="EN846" s="9"/>
+      <c r="EO846" s="9"/>
+      <c r="EP846" s="9"/>
+      <c r="EQ846" s="9"/>
+      <c r="ER846" s="9"/>
+      <c r="ES846" s="9"/>
+      <c r="ET846" s="9"/>
+      <c r="EU846" s="9"/>
+      <c r="EV846" s="9"/>
+      <c r="EW846" s="9"/>
+      <c r="EX846" s="9"/>
+      <c r="EY846" s="9"/>
+      <c r="EZ846" s="9"/>
+      <c r="FA846" s="9"/>
+      <c r="FB846" s="9"/>
+      <c r="FC846" s="9"/>
+      <c r="FD846" s="9"/>
+      <c r="FE846" s="9"/>
+      <c r="FF846" s="9"/>
+      <c r="FG846" s="9"/>
+      <c r="FH846" s="9"/>
+      <c r="FI846" s="9"/>
+      <c r="FJ846" s="9"/>
+      <c r="FK846" s="9"/>
+      <c r="FL846" s="9"/>
+      <c r="FM846" s="9"/>
+      <c r="FN846" s="9"/>
+      <c r="FO846" s="9"/>
+      <c r="FP846" s="9"/>
+      <c r="FQ846" s="9"/>
+      <c r="FR846" s="9"/>
+      <c r="FS846" s="9"/>
+      <c r="FT846" s="9"/>
+      <c r="FU846" s="9"/>
+      <c r="FV846" s="9"/>
+      <c r="FW846" s="9"/>
+      <c r="FX846" s="9"/>
+      <c r="FY846" s="9"/>
+      <c r="FZ846" s="9"/>
+      <c r="GA846" s="9"/>
+      <c r="GB846" s="9"/>
+      <c r="GC846" s="9"/>
+      <c r="GD846" s="9"/>
+      <c r="GE846" s="9"/>
+      <c r="GF846" s="9"/>
+      <c r="GG846" s="9"/>
+      <c r="GH846" s="9"/>
+      <c r="GI846" s="9"/>
+      <c r="GJ846" s="9"/>
+      <c r="GK846" s="9"/>
+      <c r="GL846" s="9"/>
+      <c r="GM846" s="9"/>
+      <c r="GN846" s="9"/>
+      <c r="GO846" s="9"/>
+      <c r="GP846" s="9"/>
+      <c r="GQ846" s="9"/>
+      <c r="GR846" s="9"/>
+      <c r="GS846" s="9"/>
+      <c r="GT846" s="9"/>
+      <c r="GU846" s="9"/>
+      <c r="GV846" s="9"/>
+      <c r="GW846" s="9"/>
+      <c r="GX846" s="9"/>
+      <c r="GY846" s="9"/>
+      <c r="GZ846" s="9"/>
+      <c r="HA846" s="9"/>
+      <c r="HB846" s="9"/>
+      <c r="HC846" s="9"/>
+      <c r="HD846" s="9"/>
+      <c r="HE846" s="9"/>
+      <c r="HF846" s="9"/>
+      <c r="HG846" s="9"/>
+      <c r="HH846" s="9"/>
+      <c r="HI846" s="9"/>
+      <c r="HJ846" s="9"/>
+      <c r="HK846" s="9"/>
+      <c r="HL846" s="9"/>
+      <c r="HM846" s="9"/>
+      <c r="HN846" s="9"/>
+      <c r="HO846" s="9"/>
+      <c r="HP846" s="9"/>
+      <c r="HQ846" s="9"/>
+      <c r="HR846" s="9"/>
+      <c r="HS846" s="9"/>
+      <c r="HT846" s="9"/>
+      <c r="HU846" s="9"/>
+      <c r="HV846" s="9"/>
+      <c r="HW846" s="9"/>
+      <c r="HX846" s="9"/>
+      <c r="HY846" s="9"/>
+      <c r="HZ846" s="9"/>
+      <c r="IA846" s="9"/>
+      <c r="IB846" s="9"/>
+      <c r="IC846" s="9"/>
+      <c r="ID846" s="9"/>
+      <c r="IE846" s="9"/>
+      <c r="IF846" s="9"/>
+      <c r="IG846" s="9"/>
+      <c r="IH846" s="9"/>
+      <c r="II846" s="9"/>
+      <c r="IJ846" s="9"/>
+      <c r="IK846" s="9"/>
+      <c r="IL846" s="9"/>
+      <c r="IM846" s="9"/>
+      <c r="IN846" s="9"/>
+      <c r="IO846" s="9"/>
+      <c r="IP846" s="9"/>
+      <c r="IQ846" s="9"/>
+      <c r="IR846" s="9"/>
+      <c r="IS846" s="9"/>
+      <c r="IT846" s="9"/>
+      <c r="IU846" s="9"/>
+      <c r="IV846" s="9"/>
+      <c r="IW846" s="9"/>
+      <c r="IX846" s="9"/>
+      <c r="IY846" s="9"/>
+      <c r="IZ846" s="9"/>
+      <c r="JA846" s="9"/>
+      <c r="JB846" s="9"/>
+      <c r="JC846" s="9"/>
+      <c r="JD846" s="9"/>
+      <c r="JE846" s="9"/>
+      <c r="JF846" s="9"/>
+      <c r="JG846" s="9"/>
+      <c r="JH846" s="9"/>
+      <c r="JI846" s="9"/>
+      <c r="JJ846" s="9"/>
+      <c r="JK846" s="9"/>
+      <c r="JL846" s="9"/>
+      <c r="JM846" s="9"/>
+      <c r="JN846" s="9"/>
+      <c r="JO846" s="9"/>
+      <c r="JP846" s="9"/>
+      <c r="JQ846" s="9"/>
+      <c r="JR846" s="9"/>
+      <c r="JS846" s="9"/>
+      <c r="JT846" s="9"/>
+      <c r="JU846" s="9"/>
+      <c r="JV846" s="9"/>
+      <c r="JW846" s="9"/>
+      <c r="JX846" s="9"/>
+      <c r="JY846" s="9"/>
+      <c r="JZ846" s="9"/>
+      <c r="KA846" s="9"/>
+      <c r="KB846" s="9"/>
+      <c r="KC846" s="9"/>
+      <c r="KD846" s="9"/>
+      <c r="KE846" s="9"/>
+      <c r="KF846" s="9"/>
+      <c r="KG846" s="9"/>
+      <c r="KH846" s="9"/>
+      <c r="KI846" s="9"/>
+      <c r="KJ846" s="9"/>
+      <c r="KK846" s="9"/>
+      <c r="KL846" s="9"/>
+      <c r="KM846" s="9"/>
+      <c r="KN846" s="9"/>
+      <c r="KO846" s="9"/>
+      <c r="KP846" s="9"/>
+      <c r="KQ846" s="9"/>
+      <c r="KR846" s="9"/>
+      <c r="KS846" s="9"/>
+      <c r="KT846" s="9"/>
+      <c r="KU846" s="9"/>
+      <c r="KV846" s="9"/>
+      <c r="KW846" s="9"/>
+      <c r="KX846" s="9"/>
+      <c r="KY846" s="9"/>
+      <c r="KZ846" s="9"/>
+      <c r="LA846" s="9"/>
+      <c r="LB846" s="9"/>
+      <c r="LC846" s="9"/>
+      <c r="LD846" s="9"/>
+      <c r="LE846" s="9"/>
+      <c r="LF846" s="9"/>
+      <c r="LG846" s="9"/>
+      <c r="LH846" s="9"/>
+      <c r="LI846" s="9"/>
+      <c r="LJ846" s="9"/>
+      <c r="LK846" s="9"/>
+      <c r="LL846" s="9"/>
+      <c r="LM846" s="9"/>
+      <c r="LN846" s="9"/>
+      <c r="LO846" s="9"/>
+      <c r="LP846" s="9"/>
+      <c r="LQ846" s="9"/>
+      <c r="LR846" s="9"/>
+      <c r="LS846" s="9"/>
+      <c r="LT846" s="9"/>
+      <c r="LU846" s="9"/>
+      <c r="LV846" s="9"/>
+      <c r="LW846" s="9"/>
+      <c r="LX846" s="9"/>
+      <c r="LY846" s="9"/>
+      <c r="LZ846" s="9"/>
+      <c r="MA846" s="9"/>
+      <c r="MB846" s="9"/>
+      <c r="MC846" s="9"/>
+      <c r="MD846" s="9"/>
+      <c r="ME846" s="9"/>
+      <c r="MF846" s="9"/>
+      <c r="MG846" s="9"/>
+      <c r="MH846" s="9"/>
+      <c r="MI846" s="9"/>
+      <c r="MJ846" s="9"/>
+      <c r="MK846" s="9"/>
+      <c r="ML846" s="9"/>
+      <c r="MM846" s="9"/>
+      <c r="MN846" s="9"/>
+      <c r="MO846" s="9"/>
+      <c r="MP846" s="9"/>
+      <c r="MQ846" s="9"/>
+      <c r="MR846" s="9"/>
+      <c r="MS846" s="9"/>
+      <c r="MT846" s="9"/>
+      <c r="MU846" s="9"/>
+      <c r="MV846" s="9"/>
+      <c r="MW846" s="9"/>
+      <c r="MX846" s="9"/>
+      <c r="MY846" s="9"/>
+      <c r="MZ846" s="9"/>
+      <c r="NA846" s="9"/>
+      <c r="NB846" s="9"/>
+      <c r="NC846" s="9"/>
+      <c r="ND846" s="9"/>
+      <c r="NE846" s="9"/>
+      <c r="NF846" s="9"/>
+      <c r="NG846" s="9"/>
+      <c r="NH846" s="9"/>
+      <c r="NI846" s="9"/>
+      <c r="NJ846" s="9"/>
+      <c r="NK846" s="9"/>
+      <c r="NL846" s="9"/>
+      <c r="NM846" s="9"/>
+      <c r="NN846" s="9"/>
+      <c r="NO846" s="9"/>
+      <c r="NP846" s="9"/>
+      <c r="NQ846" s="9"/>
+      <c r="NR846" s="9"/>
+      <c r="NS846" s="9"/>
+      <c r="NT846" s="9"/>
+      <c r="NU846" s="9"/>
+      <c r="NV846" s="9"/>
+      <c r="NW846" s="9"/>
+      <c r="NX846" s="9"/>
+      <c r="NY846" s="9"/>
+      <c r="NZ846" s="9"/>
+      <c r="OA846" s="9"/>
+      <c r="OB846" s="9"/>
+      <c r="OC846" s="9"/>
+      <c r="OD846" s="9"/>
+      <c r="OE846" s="9"/>
+      <c r="OF846" s="9"/>
+      <c r="OG846" s="9"/>
+      <c r="OH846" s="9"/>
+      <c r="OI846" s="9"/>
+      <c r="OJ846" s="9"/>
+      <c r="OK846" s="9"/>
+      <c r="OL846" s="9"/>
+      <c r="OM846" s="9"/>
+      <c r="ON846" s="9"/>
+      <c r="OO846" s="9"/>
+      <c r="OP846" s="9"/>
+      <c r="OQ846" s="9"/>
+      <c r="OR846" s="9"/>
+      <c r="OS846" s="9"/>
+      <c r="OT846" s="9"/>
+      <c r="OU846" s="9"/>
+      <c r="OV846" s="9"/>
+      <c r="OW846" s="9"/>
+      <c r="OX846" s="9"/>
+      <c r="OY846" s="9"/>
+      <c r="OZ846" s="9"/>
+      <c r="PA846" s="9"/>
+      <c r="PB846" s="9"/>
+      <c r="PC846" s="9"/>
+      <c r="PD846" s="9"/>
+      <c r="PE846" s="9"/>
+      <c r="PF846" s="9"/>
+      <c r="PG846" s="9"/>
+      <c r="PH846" s="9"/>
+      <c r="PI846" s="9"/>
+      <c r="PJ846" s="9"/>
+      <c r="PK846" s="9"/>
+      <c r="PL846" s="9"/>
+      <c r="PM846" s="9"/>
+      <c r="PN846" s="9"/>
+      <c r="PO846" s="9"/>
+      <c r="PP846" s="9"/>
+      <c r="PQ846" s="9"/>
+      <c r="PR846" s="9"/>
+      <c r="PS846" s="9"/>
+      <c r="PT846" s="9"/>
+      <c r="PU846" s="9"/>
+      <c r="PV846" s="9"/>
+      <c r="PW846" s="9"/>
+      <c r="PX846" s="9"/>
+      <c r="PY846" s="9"/>
+      <c r="PZ846" s="9"/>
+      <c r="QA846" s="9"/>
+      <c r="QB846" s="9"/>
+      <c r="QC846" s="9"/>
+      <c r="QD846" s="9"/>
+      <c r="QE846" s="9"/>
+      <c r="QF846" s="9"/>
+      <c r="QG846" s="9"/>
+      <c r="QH846" s="9"/>
+      <c r="QI846" s="9"/>
+      <c r="QJ846" s="9"/>
+      <c r="QK846" s="9"/>
+      <c r="QL846" s="9"/>
+      <c r="QM846" s="9"/>
+      <c r="QN846" s="9"/>
+      <c r="QO846" s="9"/>
+      <c r="QP846" s="9"/>
+      <c r="QQ846" s="9"/>
+      <c r="QR846" s="9"/>
+      <c r="QS846" s="9"/>
+      <c r="QT846" s="9"/>
+      <c r="QU846" s="9"/>
+      <c r="QV846" s="9"/>
+      <c r="QW846" s="9"/>
+      <c r="QX846" s="9"/>
+      <c r="QY846" s="9"/>
+      <c r="QZ846" s="9"/>
+      <c r="RA846" s="9"/>
+      <c r="RB846" s="9"/>
+      <c r="RC846" s="9"/>
+      <c r="RD846" s="9"/>
+      <c r="RE846" s="9"/>
+      <c r="RF846" s="9"/>
+      <c r="RG846" s="9"/>
+      <c r="RH846" s="9"/>
+      <c r="RI846" s="9"/>
+      <c r="RJ846" s="9"/>
+      <c r="RK846" s="9"/>
+      <c r="RL846" s="9"/>
+      <c r="RM846" s="9"/>
+      <c r="RN846" s="9"/>
+      <c r="RO846" s="9"/>
+      <c r="RP846" s="9"/>
+      <c r="RQ846" s="9"/>
+      <c r="RR846" s="9"/>
+      <c r="RS846" s="9"/>
+      <c r="RT846" s="9"/>
+      <c r="RU846" s="9"/>
+      <c r="RV846" s="9"/>
+      <c r="RW846" s="9"/>
+      <c r="RX846" s="9"/>
+      <c r="RY846" s="9"/>
+      <c r="RZ846" s="9"/>
+      <c r="SA846" s="9"/>
+      <c r="SB846" s="9"/>
+      <c r="SC846" s="9"/>
+      <c r="SD846" s="9"/>
+      <c r="SE846" s="9"/>
+      <c r="SF846" s="9"/>
+      <c r="SG846" s="9"/>
+      <c r="SH846" s="9"/>
+      <c r="SI846" s="9"/>
+      <c r="SJ846" s="9"/>
+      <c r="SK846" s="9"/>
+      <c r="SL846" s="9"/>
+      <c r="SM846" s="9"/>
+      <c r="SN846" s="9"/>
+      <c r="SO846" s="9"/>
+      <c r="SP846" s="9"/>
+      <c r="SQ846" s="9"/>
+      <c r="SR846" s="9"/>
+      <c r="SS846" s="9"/>
+      <c r="ST846" s="9"/>
+      <c r="SU846" s="9"/>
+      <c r="SV846" s="9"/>
+      <c r="SW846" s="9"/>
+      <c r="SX846" s="9"/>
+      <c r="SY846" s="9"/>
+      <c r="SZ846" s="9"/>
+      <c r="TA846" s="9"/>
+      <c r="TB846" s="9"/>
+      <c r="TC846" s="9"/>
+      <c r="TD846" s="9"/>
+      <c r="TE846" s="9"/>
+      <c r="TF846" s="9"/>
+      <c r="TG846" s="9"/>
+      <c r="TH846" s="9"/>
+      <c r="TI846" s="9"/>
+      <c r="TJ846" s="9"/>
+      <c r="TK846" s="9"/>
+      <c r="TL846" s="9"/>
+      <c r="TM846" s="9"/>
+      <c r="TN846" s="9"/>
+      <c r="TO846" s="9"/>
+      <c r="TP846" s="9"/>
+      <c r="TQ846" s="9"/>
+      <c r="TR846" s="9"/>
+      <c r="TS846" s="9"/>
+      <c r="TT846" s="9"/>
+      <c r="TU846" s="9"/>
+      <c r="TV846" s="9"/>
+      <c r="TW846" s="9"/>
+      <c r="TX846" s="9"/>
+      <c r="TY846" s="9"/>
+      <c r="TZ846" s="9"/>
+      <c r="UA846" s="9"/>
+      <c r="UB846" s="9"/>
+      <c r="UC846" s="9"/>
+      <c r="UD846" s="9"/>
+      <c r="UE846" s="9"/>
+      <c r="UF846" s="9"/>
+      <c r="UG846" s="9"/>
+      <c r="UH846" s="9"/>
+      <c r="UI846" s="9"/>
+      <c r="UJ846" s="9"/>
+      <c r="UK846" s="9"/>
+      <c r="UL846" s="9"/>
+      <c r="UM846" s="9"/>
+      <c r="UN846" s="9"/>
+      <c r="UO846" s="9"/>
+      <c r="UP846" s="9"/>
+      <c r="UQ846" s="9"/>
+      <c r="UR846" s="9"/>
+      <c r="US846" s="9"/>
+      <c r="UT846" s="9"/>
+      <c r="UU846" s="9"/>
+      <c r="UV846" s="9"/>
+      <c r="UW846" s="9"/>
+      <c r="UX846" s="9"/>
+      <c r="UY846" s="9"/>
+      <c r="UZ846" s="9"/>
+      <c r="VA846" s="9"/>
+      <c r="VB846" s="9"/>
+      <c r="VC846" s="9"/>
+      <c r="VD846" s="9"/>
+      <c r="VE846" s="9"/>
+      <c r="VF846" s="9"/>
+      <c r="VG846" s="9"/>
+      <c r="VH846" s="9"/>
+      <c r="VI846" s="9"/>
+      <c r="VJ846" s="9"/>
+      <c r="VK846" s="9"/>
+      <c r="VL846" s="9"/>
+      <c r="VM846" s="9"/>
+      <c r="VN846" s="9"/>
+      <c r="VO846" s="9"/>
+      <c r="VP846" s="9"/>
+      <c r="VQ846" s="9"/>
+      <c r="VR846" s="9"/>
+      <c r="VS846" s="9"/>
+      <c r="VT846" s="9"/>
+      <c r="VU846" s="9"/>
+      <c r="VV846" s="9"/>
+      <c r="VW846" s="9"/>
+      <c r="VX846" s="9"/>
+      <c r="VY846" s="9"/>
+      <c r="VZ846" s="9"/>
+      <c r="WA846" s="9"/>
+      <c r="WB846" s="9"/>
+      <c r="WC846" s="9"/>
+      <c r="WD846" s="9"/>
+      <c r="WE846" s="9"/>
+      <c r="WF846" s="9"/>
+      <c r="WG846" s="9"/>
+      <c r="WH846" s="9"/>
+      <c r="WI846" s="9"/>
+      <c r="WJ846" s="9"/>
+      <c r="WK846" s="9"/>
+      <c r="WL846" s="9"/>
+      <c r="WM846" s="9"/>
+      <c r="WN846" s="9"/>
+      <c r="WO846" s="9"/>
+      <c r="WP846" s="9"/>
+      <c r="WQ846" s="9"/>
+      <c r="WR846" s="9"/>
+      <c r="WS846" s="9"/>
+      <c r="WT846" s="9"/>
+      <c r="WU846" s="9"/>
+      <c r="WV846" s="9"/>
+      <c r="WW846" s="9"/>
+      <c r="WX846" s="9"/>
+      <c r="WY846" s="9"/>
+      <c r="WZ846" s="9"/>
+      <c r="XA846" s="9"/>
+      <c r="XB846" s="9"/>
+      <c r="XC846" s="9"/>
+      <c r="XD846" s="9"/>
+      <c r="XE846" s="9"/>
+      <c r="XF846" s="9"/>
+      <c r="XG846" s="9"/>
+      <c r="XH846" s="9"/>
+      <c r="XI846" s="9"/>
+      <c r="XJ846" s="9"/>
+      <c r="XK846" s="9"/>
+      <c r="XL846" s="9"/>
+      <c r="XM846" s="9"/>
+      <c r="XN846" s="9"/>
+      <c r="XO846" s="9"/>
+      <c r="XP846" s="9"/>
+      <c r="XQ846" s="9"/>
+      <c r="XR846" s="9"/>
+      <c r="XS846" s="9"/>
+      <c r="XT846" s="9"/>
+      <c r="XU846" s="9"/>
+      <c r="XV846" s="9"/>
+      <c r="XW846" s="9"/>
+      <c r="XX846" s="9"/>
+      <c r="XY846" s="9"/>
+      <c r="XZ846" s="9"/>
+      <c r="YA846" s="9"/>
+      <c r="YB846" s="9"/>
+      <c r="YC846" s="9"/>
+      <c r="YD846" s="9"/>
+      <c r="YE846" s="9"/>
+      <c r="YF846" s="9"/>
+      <c r="YG846" s="9"/>
+      <c r="YH846" s="9"/>
+      <c r="YI846" s="9"/>
+      <c r="YJ846" s="9"/>
+      <c r="YK846" s="9"/>
+      <c r="YL846" s="9"/>
+      <c r="YM846" s="9"/>
+      <c r="YN846" s="9"/>
+      <c r="YO846" s="9"/>
+      <c r="YP846" s="9"/>
+      <c r="YQ846" s="9"/>
+      <c r="YR846" s="9"/>
+      <c r="YS846" s="9"/>
+      <c r="YT846" s="9"/>
+      <c r="YU846" s="9"/>
+      <c r="YV846" s="9"/>
+      <c r="YW846" s="9"/>
+      <c r="YX846" s="9"/>
+      <c r="YY846" s="9"/>
+      <c r="YZ846" s="9"/>
+      <c r="ZA846" s="9"/>
+      <c r="ZB846" s="9"/>
+      <c r="ZC846" s="9"/>
+      <c r="ZD846" s="9"/>
+      <c r="ZE846" s="9"/>
+      <c r="ZF846" s="9"/>
+      <c r="ZG846" s="9"/>
+      <c r="ZH846" s="9"/>
+      <c r="ZI846" s="9"/>
+      <c r="ZJ846" s="9"/>
+      <c r="ZK846" s="9"/>
+      <c r="ZL846" s="9"/>
+      <c r="ZM846" s="9"/>
+      <c r="ZN846" s="9"/>
+      <c r="ZO846" s="9"/>
+      <c r="ZP846" s="9"/>
+      <c r="ZQ846" s="9"/>
+      <c r="ZR846" s="9"/>
+      <c r="ZS846" s="9"/>
+      <c r="ZT846" s="9"/>
+      <c r="ZU846" s="9"/>
+      <c r="ZV846" s="9"/>
+      <c r="ZW846" s="9"/>
+      <c r="ZX846" s="9"/>
+      <c r="ZY846" s="9"/>
+      <c r="ZZ846" s="9"/>
+      <c r="AAA846" s="9"/>
+      <c r="AAB846" s="9"/>
+      <c r="AAC846" s="9"/>
+      <c r="AAD846" s="9"/>
+      <c r="AAE846" s="9"/>
+      <c r="AAF846" s="9"/>
+      <c r="AAG846" s="9"/>
+      <c r="AAH846" s="9"/>
+      <c r="AAI846" s="9"/>
+      <c r="AAJ846" s="9"/>
+      <c r="AAK846" s="9"/>
+      <c r="AAL846" s="9"/>
+      <c r="AAM846" s="9"/>
+      <c r="AAN846" s="9"/>
+      <c r="AAO846" s="9"/>
+      <c r="AAP846" s="9"/>
+      <c r="AAQ846" s="9"/>
+      <c r="AAR846" s="9"/>
+      <c r="AAS846" s="9"/>
+      <c r="AAT846" s="9"/>
+      <c r="AAU846" s="9"/>
+      <c r="AAV846" s="9"/>
+      <c r="AAW846" s="9"/>
+      <c r="AAX846" s="9"/>
+      <c r="AAY846" s="9"/>
+      <c r="AAZ846" s="9"/>
+      <c r="ABA846" s="9"/>
+      <c r="ABB846" s="9"/>
+      <c r="ABC846" s="9"/>
+      <c r="ABD846" s="9"/>
+      <c r="ABE846" s="9"/>
+      <c r="ABF846" s="9"/>
+      <c r="ABG846" s="9"/>
+      <c r="ABH846" s="9"/>
+      <c r="ABI846" s="9"/>
+      <c r="ABJ846" s="9"/>
+      <c r="ABK846" s="9"/>
+      <c r="ABL846" s="9"/>
+      <c r="ABM846" s="9"/>
+      <c r="ABN846" s="9"/>
+      <c r="ABO846" s="9"/>
+      <c r="ABP846" s="9"/>
+      <c r="ABQ846" s="9"/>
+      <c r="ABR846" s="9"/>
+      <c r="ABS846" s="9"/>
+      <c r="ABT846" s="9"/>
+      <c r="ABU846" s="9"/>
+      <c r="ABV846" s="9"/>
+      <c r="ABW846" s="9"/>
+      <c r="ABX846" s="9"/>
+      <c r="ABY846" s="9"/>
+      <c r="ABZ846" s="9"/>
+      <c r="ACA846" s="9"/>
+      <c r="ACB846" s="9"/>
+      <c r="ACC846" s="9"/>
+      <c r="ACD846" s="9"/>
+      <c r="ACE846" s="9"/>
+      <c r="ACF846" s="9"/>
+      <c r="ACG846" s="9"/>
+      <c r="ACH846" s="9"/>
+      <c r="ACI846" s="9"/>
+      <c r="ACJ846" s="9"/>
+      <c r="ACK846" s="9"/>
+      <c r="ACL846" s="9"/>
+      <c r="ACM846" s="9"/>
+      <c r="ACN846" s="9"/>
+      <c r="ACO846" s="9"/>
+      <c r="ACP846" s="9"/>
+      <c r="ACQ846" s="9"/>
+      <c r="ACR846" s="9"/>
+      <c r="ACS846" s="9"/>
+      <c r="ACT846" s="9"/>
+      <c r="ACU846" s="9"/>
+      <c r="ACV846" s="9"/>
+      <c r="ACW846" s="9"/>
+      <c r="ACX846" s="9"/>
+      <c r="ACY846" s="9"/>
+      <c r="ACZ846" s="9"/>
+      <c r="ADA846" s="9"/>
+      <c r="ADB846" s="9"/>
+      <c r="ADC846" s="9"/>
+      <c r="ADD846" s="9"/>
+      <c r="ADE846" s="9"/>
+      <c r="ADF846" s="9"/>
+      <c r="ADG846" s="9"/>
+      <c r="ADH846" s="9"/>
+      <c r="ADI846" s="9"/>
+      <c r="ADJ846" s="9"/>
+      <c r="ADK846" s="9"/>
+      <c r="ADL846" s="9"/>
+      <c r="ADM846" s="9"/>
+      <c r="ADN846" s="9"/>
+      <c r="ADO846" s="9"/>
+      <c r="ADP846" s="9"/>
+      <c r="ADQ846" s="9"/>
+      <c r="ADR846" s="9"/>
+      <c r="ADS846" s="9"/>
+      <c r="ADT846" s="9"/>
+      <c r="ADU846" s="9"/>
+      <c r="ADV846" s="9"/>
+      <c r="ADW846" s="9"/>
+      <c r="ADX846" s="9"/>
+      <c r="ADY846" s="9"/>
+      <c r="ADZ846" s="9"/>
+      <c r="AEA846" s="9"/>
+      <c r="AEB846" s="9"/>
+      <c r="AEC846" s="9"/>
+      <c r="AED846" s="9"/>
+      <c r="AEE846" s="9"/>
+      <c r="AEF846" s="9"/>
+      <c r="AEG846" s="9"/>
+      <c r="AEH846" s="9"/>
+      <c r="AEI846" s="9"/>
+      <c r="AEJ846" s="9"/>
+      <c r="AEK846" s="9"/>
+      <c r="AEL846" s="9"/>
+      <c r="AEM846" s="9"/>
+      <c r="AEN846" s="9"/>
+      <c r="AEO846" s="9"/>
+      <c r="AEP846" s="9"/>
+      <c r="AEQ846" s="9"/>
+      <c r="AER846" s="9"/>
+      <c r="AES846" s="9"/>
+      <c r="AET846" s="9"/>
+      <c r="AEU846" s="9"/>
+      <c r="AEV846" s="9"/>
+      <c r="AEW846" s="9"/>
+      <c r="AEX846" s="9"/>
+      <c r="AEY846" s="9"/>
+      <c r="AEZ846" s="9"/>
+      <c r="AFA846" s="9"/>
+      <c r="AFB846" s="9"/>
+      <c r="AFC846" s="9"/>
+      <c r="AFD846" s="9"/>
+      <c r="AFE846" s="9"/>
+      <c r="AFF846" s="9"/>
+      <c r="AFG846" s="9"/>
+      <c r="AFH846" s="9"/>
+      <c r="AFI846" s="9"/>
+      <c r="AFJ846" s="9"/>
+      <c r="AFK846" s="9"/>
+      <c r="AFL846" s="9"/>
+      <c r="AFM846" s="9"/>
+      <c r="AFN846" s="9"/>
+      <c r="AFO846" s="9"/>
+      <c r="AFP846" s="9"/>
+      <c r="AFQ846" s="9"/>
+      <c r="AFR846" s="9"/>
+      <c r="AFS846" s="9"/>
+      <c r="AFT846" s="9"/>
+      <c r="AFU846" s="9"/>
+      <c r="AFV846" s="9"/>
+      <c r="AFW846" s="9"/>
+      <c r="AFX846" s="9"/>
+      <c r="AFY846" s="9"/>
+      <c r="AFZ846" s="9"/>
+      <c r="AGA846" s="9"/>
+      <c r="AGB846" s="9"/>
+      <c r="AGC846" s="9"/>
+      <c r="AGD846" s="9"/>
+      <c r="AGE846" s="9"/>
+      <c r="AGF846" s="9"/>
+      <c r="AGG846" s="9"/>
+      <c r="AGH846" s="9"/>
+      <c r="AGI846" s="9"/>
+      <c r="AGJ846" s="9"/>
+      <c r="AGK846" s="9"/>
+      <c r="AGL846" s="9"/>
+      <c r="AGM846" s="9"/>
+      <c r="AGN846" s="9"/>
+      <c r="AGO846" s="9"/>
+      <c r="AGP846" s="9"/>
+      <c r="AGQ846" s="9"/>
+      <c r="AGR846" s="9"/>
+      <c r="AGS846" s="9"/>
+      <c r="AGT846" s="9"/>
+      <c r="AGU846" s="9"/>
+      <c r="AGV846" s="9"/>
+      <c r="AGW846" s="9"/>
+      <c r="AGX846" s="9"/>
+      <c r="AGY846" s="9"/>
+      <c r="AGZ846" s="9"/>
+      <c r="AHA846" s="9"/>
+      <c r="AHB846" s="9"/>
+      <c r="AHC846" s="9"/>
+      <c r="AHD846" s="9"/>
+      <c r="AHE846" s="9"/>
+      <c r="AHF846" s="9"/>
+      <c r="AHG846" s="9"/>
+      <c r="AHH846" s="9"/>
+      <c r="AHI846" s="9"/>
+      <c r="AHJ846" s="9"/>
+      <c r="AHK846" s="9"/>
+      <c r="AHL846" s="9"/>
+      <c r="AHM846" s="9"/>
+      <c r="AHN846" s="9"/>
+      <c r="AHO846" s="9"/>
+      <c r="AHP846" s="9"/>
+      <c r="AHQ846" s="9"/>
+      <c r="AHR846" s="9"/>
+      <c r="AHS846" s="9"/>
+      <c r="AHT846" s="9"/>
+      <c r="AHU846" s="9"/>
+      <c r="AHV846" s="9"/>
+      <c r="AHW846" s="9"/>
+      <c r="AHX846" s="9"/>
+      <c r="AHY846" s="9"/>
+      <c r="AHZ846" s="9"/>
+      <c r="AIA846" s="9"/>
+      <c r="AIB846" s="9"/>
+      <c r="AIC846" s="9"/>
+      <c r="AID846" s="9"/>
+      <c r="AIE846" s="9"/>
+      <c r="AIF846" s="9"/>
+      <c r="AIG846" s="9"/>
+      <c r="AIH846" s="9"/>
+      <c r="AII846" s="9"/>
+      <c r="AIJ846" s="9"/>
+      <c r="AIK846" s="9"/>
+      <c r="AIL846" s="9"/>
+      <c r="AIM846" s="9"/>
+      <c r="AIN846" s="9"/>
+      <c r="AIO846" s="9"/>
+      <c r="AIP846" s="9"/>
+      <c r="AIQ846" s="9"/>
+      <c r="AIR846" s="9"/>
+      <c r="AIS846" s="9"/>
+      <c r="AIT846" s="9"/>
+      <c r="AIU846" s="9"/>
+      <c r="AIV846" s="9"/>
+      <c r="AIW846" s="9"/>
+      <c r="AIX846" s="9"/>
+      <c r="AIY846" s="9"/>
+      <c r="AIZ846" s="9"/>
+      <c r="AJA846" s="9"/>
+      <c r="AJB846" s="9"/>
+      <c r="AJC846" s="9"/>
+      <c r="AJD846" s="9"/>
+      <c r="AJE846" s="9"/>
+      <c r="AJF846" s="9"/>
+      <c r="AJG846" s="9"/>
+      <c r="AJH846" s="9"/>
+      <c r="AJI846" s="9"/>
+      <c r="AJJ846" s="9"/>
+      <c r="AJK846" s="9"/>
+      <c r="AJL846" s="9"/>
+      <c r="AJM846" s="9"/>
+      <c r="AJN846" s="9"/>
+      <c r="AJO846" s="9"/>
+      <c r="AJP846" s="9"/>
+      <c r="AJQ846" s="9"/>
+      <c r="AJR846" s="9"/>
+      <c r="AJS846" s="9"/>
+      <c r="AJT846" s="9"/>
+      <c r="AJU846" s="9"/>
+      <c r="AJV846" s="9"/>
+      <c r="AJW846" s="9"/>
+      <c r="AJX846" s="9"/>
+      <c r="AJY846" s="9"/>
+      <c r="AJZ846" s="9"/>
+      <c r="AKA846" s="9"/>
+      <c r="AKB846" s="9"/>
+      <c r="AKC846" s="9"/>
+      <c r="AKD846" s="9"/>
+      <c r="AKE846" s="9"/>
+      <c r="AKF846" s="9"/>
+      <c r="AKG846" s="9"/>
+      <c r="AKH846" s="9"/>
+      <c r="AKI846" s="9"/>
+      <c r="AKJ846" s="9"/>
+      <c r="AKK846" s="9"/>
+      <c r="AKL846" s="9"/>
+      <c r="AKM846" s="9"/>
+      <c r="AKN846" s="9"/>
+      <c r="AKO846" s="9"/>
+      <c r="AKP846" s="9"/>
+      <c r="AKQ846" s="9"/>
+      <c r="AKR846" s="9"/>
+      <c r="AKS846" s="9"/>
+      <c r="AKT846" s="9"/>
+      <c r="AKU846" s="9"/>
+      <c r="AKV846" s="9"/>
+      <c r="AKW846" s="9"/>
+      <c r="AKX846" s="9"/>
+      <c r="AKY846" s="9"/>
+      <c r="AKZ846" s="9"/>
+      <c r="ALA846" s="9"/>
+      <c r="ALB846" s="9"/>
+      <c r="ALC846" s="9"/>
+      <c r="ALD846" s="9"/>
+      <c r="ALE846" s="9"/>
+      <c r="ALF846" s="9"/>
+      <c r="ALG846" s="9"/>
+      <c r="ALH846" s="9"/>
+      <c r="ALI846" s="9"/>
+      <c r="ALJ846" s="9"/>
+      <c r="ALK846" s="9"/>
+      <c r="ALL846" s="9"/>
+      <c r="ALM846" s="9"/>
+      <c r="ALN846" s="9"/>
+      <c r="ALO846" s="9"/>
+      <c r="ALP846" s="9"/>
+      <c r="ALQ846" s="9"/>
+      <c r="ALR846" s="9"/>
+      <c r="ALS846" s="9"/>
+      <c r="ALT846" s="9"/>
+      <c r="ALU846" s="9"/>
+      <c r="ALV846" s="9"/>
+      <c r="ALW846" s="9"/>
+      <c r="ALX846" s="9"/>
+      <c r="ALY846" s="9"/>
+      <c r="ALZ846" s="9"/>
+      <c r="AMA846" s="9"/>
+      <c r="AMB846" s="9"/>
+      <c r="AMC846" s="9"/>
+      <c r="AMD846" s="9"/>
+      <c r="AME846" s="9"/>
+      <c r="AMF846" s="9"/>
+      <c r="AMG846" s="9"/>
+      <c r="AMH846" s="9"/>
+      <c r="AMI846" s="9"/>
+      <c r="AMJ846" s="9"/>
+      <c r="AMK846" s="9"/>
     </row>
     <row r="847" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A847" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="AM847" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN847" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO847" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP847" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="AI847" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ847" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="848" spans="1:1025" x14ac:dyDescent="0.2">
       <c r="A848" s="1" t="s">
-        <v>988</v>
-      </c>
-      <c r="AI848" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ848" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE848" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF848" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="AM848" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN848" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO848" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP848" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="849" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A849" s="1" t="s">
-        <v>989</v>
-      </c>
-      <c r="BC849" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD849" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="AI849" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ849" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE849" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF849" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="850" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A850" s="1" t="s">
-        <v>990</v>
-      </c>
-      <c r="AK850" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL850" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="BC850" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD850" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="851" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A851" s="1" t="s">
-        <v>992</v>
-      </c>
-      <c r="AI851" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ851" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU851" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV851" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="AK851" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL851" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="852" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A852" s="1" t="s">
-        <v>993</v>
-      </c>
-      <c r="BA852" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB852" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="AI852" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ852" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU852" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV852" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="853" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A853" s="1" t="s">
-        <v>1016</v>
-      </c>
-      <c r="AA853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ853" s="1" t="s">
-        <v>16</v>
+        <v>993</v>
       </c>
       <c r="BA853" s="1" t="s">
         <v>16</v>
       </c>
       <c r="BB853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG853" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH853" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="854" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A854" s="1" t="s">
-        <v>991</v>
+        <v>1016</v>
+      </c>
+      <c r="AA854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ854" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="AK854" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG854" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH854" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="855" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A855" s="1" t="s">
-        <v>994</v>
-      </c>
-      <c r="AA855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ855" s="1" t="s">
-        <v>16</v>
+        <v>991</v>
       </c>
       <c r="AK855" s="1" t="s">
         <v>16</v>
       </c>
       <c r="AL855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG855" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH855" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="856" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A856" s="1" t="s">
-        <v>952</v>
-      </c>
-      <c r="U856" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="AA856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG856" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH856" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="857" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A857" s="1" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="U857" s="1" t="s">
         <v>16</v>
@@ -19077,40 +19077,37 @@
     </row>
     <row r="858" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A858" s="1" t="s">
-        <v>954</v>
-      </c>
-      <c r="P858" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q858" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="U858" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="859" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A859" s="1" t="s">
-        <v>955</v>
-      </c>
-      <c r="R859" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S859" s="1" t="s">
+        <v>954</v>
+      </c>
+      <c r="P859" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q859" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="860" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A860" s="1" t="s">
-        <v>956</v>
-      </c>
-      <c r="P860" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q860" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="R860" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S860" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="861" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A861" s="1" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="P861" s="1" t="s">
         <v>16</v>
@@ -19121,7 +19118,7 @@
     </row>
     <row r="862" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A862" s="1" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="P862" s="1" t="s">
         <v>16</v>
@@ -19132,7 +19129,7 @@
     </row>
     <row r="863" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A863" s="1" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="P863" s="1" t="s">
         <v>16</v>
@@ -19143,7 +19140,7 @@
     </row>
     <row r="864" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A864" s="1" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="P864" s="1" t="s">
         <v>16</v>
@@ -19154,7 +19151,7 @@
     </row>
     <row r="865" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A865" s="1" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="P865" s="1" t="s">
         <v>16</v>
@@ -19165,7 +19162,7 @@
     </row>
     <row r="866" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A866" s="1" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="P866" s="1" t="s">
         <v>16</v>
@@ -19176,7 +19173,7 @@
     </row>
     <row r="867" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A867" s="1" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="P867" s="1" t="s">
         <v>16</v>
@@ -19187,7 +19184,7 @@
     </row>
     <row r="868" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A868" s="1" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="P868" s="1" t="s">
         <v>16</v>
@@ -19198,7 +19195,7 @@
     </row>
     <row r="869" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A869" s="1" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="P869" s="1" t="s">
         <v>16</v>
@@ -19209,7 +19206,7 @@
     </row>
     <row r="870" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A870" s="1" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="P870" s="1" t="s">
         <v>16</v>
@@ -19220,7 +19217,7 @@
     </row>
     <row r="871" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A871" s="1" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="P871" s="1" t="s">
         <v>16</v>
@@ -19231,150 +19228,54 @@
     </row>
     <row r="872" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A872" s="1" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="P872" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q872" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R872" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S872" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="873" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A873" s="1" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="P873" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Q873" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R873" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S873" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="874" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A874" s="1" t="s">
-        <v>970</v>
-      </c>
-      <c r="U874" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="P874" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q874" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="875" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A875" s="1" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AA875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG875" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH875" s="1" t="s">
+        <v>970</v>
+      </c>
+      <c r="U875" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="876" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A876" s="1" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="AA876" s="1" t="s">
         <v>16</v>
@@ -19481,7 +19382,7 @@
     </row>
     <row r="877" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A877" s="1" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="AA877" s="1" t="s">
         <v>16</v>
@@ -19588,7 +19489,7 @@
     </row>
     <row r="878" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A878" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="AA878" s="1" t="s">
         <v>16</v>
@@ -19695,7 +19596,7 @@
     </row>
     <row r="879" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A879" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="AA879" s="1" t="s">
         <v>16</v>
@@ -19802,7 +19703,7 @@
     </row>
     <row r="880" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A880" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="AA880" s="1" t="s">
         <v>16</v>
@@ -19909,113 +19810,220 @@
     </row>
     <row r="881" spans="1:60" x14ac:dyDescent="0.2">
       <c r="A881" s="1" t="s">
+        <v>1022</v>
+      </c>
+      <c r="AA881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG881" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH881" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="882" spans="1:60" x14ac:dyDescent="0.2">
+      <c r="A882" s="1" t="s">
         <v>1023</v>
       </c>
-      <c r="AA881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AH881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AO881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AR881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AS881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AT881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AU881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AV881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AW881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AX881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AY881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AZ881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BA881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BB881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BD881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BE881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BF881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BG881" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="BH881" s="1" t="s">
+      <c r="AA882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AG882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AI882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AJ882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AL882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AN882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AO882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AS882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AV882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AX882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AY882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AZ882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BA882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BB882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BD882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BF882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG882" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BH882" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:BH881">
+  <sortState ref="A2:BH882">
     <sortCondition ref="A41"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
